--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="51">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,7 +130,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -558,22 +582,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -582,13 +606,13 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -602,10 +626,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -623,13 +647,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -637,25 +661,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -664,13 +688,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,22 +702,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -708,10 +732,10 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -722,37 +746,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -766,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -787,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -801,40 +825,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,40 +866,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -883,25 +907,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -910,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -924,25 +948,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -951,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -965,40 +989,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1006,40 +1030,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1057,13 +1081,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1074,10 +1098,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1085,10 +1109,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1099,13 +1123,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1113,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1130,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1141,10 +1165,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1155,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5833333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1169,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1183,13 +1207,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1197,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1211,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1225,13 +1249,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1273,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1269,13 +1293,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1283,13 +1307,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1300,16 +1324,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,13 +1341,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1334,13 +1358,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1351,13 +1375,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1368,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1385,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D9">
-        <v>-0.5833333333333333</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1405,13 +1429,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1422,13 +1446,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1436,16 +1460,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1453,16 +1477,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1480,76 +1504,76 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>64.81999999999999</v>
+        <v>55.11000000000001</v>
       </c>
       <c r="C2">
-        <v>33.31</v>
+        <v>23.79</v>
       </c>
       <c r="D2">
-        <v>1.85</v>
+        <v>11.71</v>
       </c>
       <c r="E2">
+        <v>5.4</v>
+      </c>
+      <c r="F2">
+        <v>2.69</v>
+      </c>
+      <c r="G2">
+        <v>1.03</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
         <v>0.02</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -1563,39 +1587,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.99999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>26.49</v>
+        <v>24.05</v>
       </c>
       <c r="C3">
-        <v>30.26</v>
+        <v>37.73</v>
       </c>
       <c r="D3">
-        <v>28.47</v>
+        <v>20.77</v>
       </c>
       <c r="E3">
-        <v>11.19</v>
+        <v>10.05</v>
       </c>
       <c r="F3">
-        <v>2.93</v>
+        <v>4.61</v>
       </c>
       <c r="G3">
+        <v>2.07</v>
+      </c>
+      <c r="H3">
         <v>0.58</v>
       </c>
-      <c r="H3">
-        <v>0.06999999999999999</v>
-      </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1607,183 +1631,183 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.98999999999999</v>
+        <v>99.85999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>6.72</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C4">
-        <v>20.82</v>
+        <v>12.86</v>
       </c>
       <c r="D4">
-        <v>30.31</v>
+        <v>16.76</v>
       </c>
       <c r="E4">
-        <v>24.18</v>
+        <v>18.46</v>
       </c>
       <c r="F4">
-        <v>12.52</v>
+        <v>17.07</v>
       </c>
       <c r="G4">
-        <v>4.130000000000001</v>
+        <v>12.55</v>
       </c>
       <c r="H4">
-        <v>1.06</v>
+        <v>7.93</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>3.45</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>1.44</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.73999999999999</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1.66</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="C5">
-        <v>10.03</v>
+        <v>9.9</v>
       </c>
       <c r="D5">
-        <v>21.48</v>
+        <v>16.26</v>
       </c>
       <c r="E5">
-        <v>25.82</v>
+        <v>17.6</v>
       </c>
       <c r="F5">
-        <v>21.5</v>
+        <v>16.95</v>
       </c>
       <c r="G5">
-        <v>12.33</v>
+        <v>13.86</v>
       </c>
       <c r="H5">
-        <v>5.28</v>
+        <v>10.3</v>
       </c>
       <c r="I5">
-        <v>1.56</v>
+        <v>5.4</v>
       </c>
       <c r="J5">
-        <v>0.31</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>1.01</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N5">
-        <v>98.10000000000001</v>
+        <v>90.94</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.27</v>
+        <v>2.76</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>7.04</v>
       </c>
       <c r="D6">
-        <v>11.38</v>
+        <v>14.3</v>
       </c>
       <c r="E6">
-        <v>19.87</v>
+        <v>17.26</v>
       </c>
       <c r="F6">
-        <v>23.98</v>
+        <v>16.87</v>
       </c>
       <c r="G6">
-        <v>20.64</v>
+        <v>15.07</v>
       </c>
       <c r="H6">
-        <v>11.8</v>
+        <v>12.14</v>
       </c>
       <c r="I6">
-        <v>5.800000000000001</v>
+        <v>7.23</v>
       </c>
       <c r="J6">
-        <v>1.74</v>
+        <v>4.36</v>
       </c>
       <c r="K6">
-        <v>0.31</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>92.14</v>
+        <v>85.44</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04</v>
+        <v>2.49</v>
       </c>
       <c r="C7">
-        <v>1.19</v>
+        <v>6.15</v>
       </c>
       <c r="D7">
-        <v>4.69</v>
+        <v>11.76</v>
       </c>
       <c r="E7">
-        <v>12.18</v>
+        <v>15.92</v>
       </c>
       <c r="F7">
-        <v>20.09</v>
+        <v>17.4</v>
       </c>
       <c r="G7">
-        <v>23.63</v>
+        <v>16.44</v>
       </c>
       <c r="H7">
-        <v>18.87</v>
+        <v>13.22</v>
       </c>
       <c r="I7">
-        <v>12.71</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J7">
-        <v>4.97</v>
+        <v>4.74</v>
       </c>
       <c r="K7">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N7">
-        <v>80.69</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1791,87 +1815,87 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.16</v>
+        <v>1.98</v>
       </c>
       <c r="D8">
-        <v>1.49</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="E8">
-        <v>5.1</v>
+        <v>9.67</v>
       </c>
       <c r="F8">
-        <v>11.48</v>
+        <v>11.98</v>
       </c>
       <c r="G8">
-        <v>19.41</v>
+        <v>15.51</v>
       </c>
       <c r="H8">
-        <v>23.42</v>
+        <v>16.28</v>
       </c>
       <c r="I8">
-        <v>20.33</v>
+        <v>14.74</v>
       </c>
       <c r="J8">
-        <v>12.09</v>
+        <v>11.08</v>
       </c>
       <c r="K8">
-        <v>5.27</v>
+        <v>7.99</v>
       </c>
       <c r="L8">
-        <v>1.23</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="N8">
-        <v>61.06</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="D9">
-        <v>0.29</v>
+        <v>1.01</v>
       </c>
       <c r="E9">
-        <v>1.37</v>
+        <v>2.61</v>
       </c>
       <c r="F9">
-        <v>5.82</v>
+        <v>5.57</v>
       </c>
       <c r="G9">
-        <v>12.69</v>
+        <v>9.68</v>
       </c>
       <c r="H9">
-        <v>21.35</v>
+        <v>15.99</v>
       </c>
       <c r="I9">
-        <v>23.5</v>
+        <v>22.18</v>
       </c>
       <c r="J9">
-        <v>19.45</v>
+        <v>20.03</v>
       </c>
       <c r="K9">
-        <v>11.56</v>
+        <v>13.74</v>
       </c>
       <c r="L9">
-        <v>3.64</v>
+        <v>6.48</v>
       </c>
       <c r="M9">
-        <v>0.31</v>
+        <v>2.39</v>
       </c>
       <c r="N9">
-        <v>41.54</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1882,40 +1906,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="D10">
-        <v>0.04</v>
+        <v>0.76</v>
       </c>
       <c r="E10">
-        <v>0.23</v>
+        <v>1.97</v>
       </c>
       <c r="F10">
-        <v>1.47</v>
+        <v>4.02</v>
       </c>
       <c r="G10">
-        <v>5.4</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="H10">
-        <v>12.87</v>
+        <v>11.25</v>
       </c>
       <c r="I10">
-        <v>19.97</v>
+        <v>15.87</v>
       </c>
       <c r="J10">
-        <v>26.68</v>
+        <v>19.17</v>
       </c>
       <c r="K10">
-        <v>22.1</v>
+        <v>19.92</v>
       </c>
       <c r="L10">
-        <v>9.76</v>
+        <v>16.03</v>
       </c>
       <c r="M10">
-        <v>1.47</v>
+        <v>3.73</v>
       </c>
       <c r="N10">
-        <v>20.02</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1926,89 +1950,89 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="F11">
-        <v>0.19</v>
+        <v>2.29</v>
       </c>
       <c r="G11">
-        <v>1.14</v>
+        <v>5.16</v>
       </c>
       <c r="H11">
-        <v>4.590000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I11">
-        <v>12.87</v>
+        <v>13.86</v>
       </c>
       <c r="J11">
-        <v>23.92</v>
+        <v>20.29</v>
       </c>
       <c r="K11">
-        <v>29.52</v>
+        <v>22.18</v>
       </c>
       <c r="L11">
-        <v>20.54</v>
+        <v>19.51</v>
       </c>
       <c r="M11">
-        <v>7.19</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="N11">
-        <v>5.960000000000001</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F12">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>1.54</v>
       </c>
       <c r="H12">
-        <v>0.6899999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="I12">
-        <v>3.01</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="J12">
-        <v>10.82</v>
+        <v>14.96</v>
       </c>
       <c r="K12">
-        <v>27.88</v>
+        <v>24.38</v>
       </c>
       <c r="L12">
-        <v>30.26</v>
+        <v>29.69</v>
       </c>
       <c r="M12">
-        <v>27.27</v>
+        <v>17.27</v>
       </c>
       <c r="N12">
-        <v>0.76</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2023,31 +2047,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="K13">
-        <v>1.95</v>
+        <v>5.94</v>
       </c>
       <c r="L13">
-        <v>34.31</v>
+        <v>22.89</v>
       </c>
       <c r="M13">
-        <v>63.73999999999999</v>
+        <v>69.25</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -2065,16 +2089,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2082,16 +2106,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2099,16 +2123,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2116,16 +2140,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2133,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2141,8 +2165,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2150,16 +2174,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,16 +2191,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2184,16 +2208,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,16 +2225,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2218,16 +2242,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,16 +2259,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2255,13 +2279,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,16 +2293,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2288,131 +2312,164 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
+      <c r="B10">
         <v>-1</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>-3</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-4</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2420,18 +2477,24 @@
         <v>-6</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2441,33 +2504,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="56">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Pennoni Adjacent</t>
   </si>
   <si>
-    <t>Philadelphia British Army</t>
+    <t>Philadelphia Bills Mafia</t>
   </si>
   <si>
     <t>Eli</t>
@@ -58,13 +58,16 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,21 +133,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -582,37 +597,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -623,37 +638,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -670,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -679,22 +694,22 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -702,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -714,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -723,16 +738,16 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -743,40 +758,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -790,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -805,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -825,22 +840,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -849,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -869,28 +884,28 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -899,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -907,16 +922,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -925,22 +940,22 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -948,37 +963,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -992,37 +1007,37 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1030,34 +1045,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -1081,13 +1096,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1098,10 +1113,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1112,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1123,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1137,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.8333333333333334</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1151,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1165,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.9166666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1179,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.9166666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1193,10 +1208,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1207,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1221,10 +1236,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1235,10 +1250,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1252,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1273,16 +1288,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1290,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1307,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1324,16 +1339,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1341,16 +1356,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1.333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D5">
-        <v>-0.6666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1358,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6">
-        <v>0.1666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1375,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333326</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1395,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1412,13 +1427,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333337</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1426,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.8333333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.1666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1443,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>-0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1460,13 +1475,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D12">
-        <v>-0.5</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1477,16 +1492,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>0.08333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333333</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1504,574 +1519,574 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>55.11000000000001</v>
+        <v>33.76</v>
       </c>
       <c r="C2">
-        <v>23.79</v>
+        <v>22.06</v>
       </c>
       <c r="D2">
-        <v>11.71</v>
+        <v>15.67</v>
       </c>
       <c r="E2">
-        <v>5.4</v>
+        <v>10.68</v>
       </c>
       <c r="F2">
-        <v>2.69</v>
+        <v>7.76</v>
       </c>
       <c r="G2">
-        <v>1.03</v>
+        <v>4.75</v>
       </c>
       <c r="H2">
-        <v>0.25</v>
+        <v>2.94</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>1.55</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.98</v>
+        <v>97.61999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>24.05</v>
+        <v>18.02</v>
       </c>
       <c r="C3">
-        <v>37.73</v>
+        <v>16.21</v>
       </c>
       <c r="D3">
-        <v>20.77</v>
+        <v>14.86</v>
       </c>
       <c r="E3">
-        <v>10.05</v>
+        <v>13.43</v>
       </c>
       <c r="F3">
-        <v>4.61</v>
+        <v>11.61</v>
       </c>
       <c r="G3">
-        <v>2.07</v>
+        <v>9.56</v>
       </c>
       <c r="H3">
-        <v>0.58</v>
+        <v>6.92</v>
       </c>
       <c r="I3">
-        <v>0.12</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>2.7</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="N3">
-        <v>99.85999999999999</v>
+        <v>90.61</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>8.970000000000001</v>
+        <v>14.03</v>
       </c>
       <c r="C4">
-        <v>12.86</v>
+        <v>18.42</v>
       </c>
       <c r="D4">
-        <v>16.76</v>
+        <v>17.87</v>
       </c>
       <c r="E4">
-        <v>18.46</v>
+        <v>14.99</v>
       </c>
       <c r="F4">
-        <v>17.07</v>
+        <v>12.65</v>
       </c>
       <c r="G4">
-        <v>12.55</v>
+        <v>9.569999999999999</v>
       </c>
       <c r="H4">
-        <v>7.93</v>
+        <v>5.96</v>
       </c>
       <c r="I4">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="J4">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="K4">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
       <c r="L4">
-        <v>0.06999999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N4">
-        <v>94.59999999999999</v>
+        <v>93.48999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>6.069999999999999</v>
+        <v>13.67</v>
       </c>
       <c r="C5">
-        <v>9.9</v>
+        <v>14.13</v>
       </c>
       <c r="D5">
-        <v>16.26</v>
+        <v>13.97</v>
       </c>
       <c r="E5">
-        <v>17.6</v>
+        <v>14.24</v>
       </c>
       <c r="F5">
-        <v>16.95</v>
+        <v>13.08</v>
       </c>
       <c r="G5">
-        <v>13.86</v>
+        <v>10.55</v>
       </c>
       <c r="H5">
-        <v>10.3</v>
+        <v>8.48</v>
       </c>
       <c r="I5">
-        <v>5.4</v>
+        <v>5.83</v>
       </c>
       <c r="J5">
-        <v>2.4</v>
+        <v>3.61</v>
       </c>
       <c r="K5">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="L5">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="N5">
-        <v>90.94</v>
+        <v>88.12</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>2.76</v>
+        <v>7.69</v>
       </c>
       <c r="C6">
-        <v>7.04</v>
+        <v>9.66</v>
       </c>
       <c r="D6">
-        <v>14.3</v>
+        <v>10.91</v>
       </c>
       <c r="E6">
-        <v>17.26</v>
+        <v>12.28</v>
       </c>
       <c r="F6">
-        <v>16.87</v>
+        <v>11.93</v>
       </c>
       <c r="G6">
-        <v>15.07</v>
+        <v>12.6</v>
       </c>
       <c r="H6">
-        <v>12.14</v>
+        <v>11.79</v>
       </c>
       <c r="I6">
-        <v>7.23</v>
+        <v>9.51</v>
       </c>
       <c r="J6">
-        <v>4.36</v>
+        <v>6.67</v>
       </c>
       <c r="K6">
+        <v>3.88</v>
+      </c>
+      <c r="L6">
         <v>2.2</v>
       </c>
-      <c r="L6">
-        <v>0.73</v>
-      </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.88</v>
       </c>
       <c r="N6">
-        <v>85.44</v>
+        <v>76.86000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2.49</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="C7">
-        <v>6.15</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="D7">
-        <v>11.76</v>
+        <v>10.86</v>
       </c>
       <c r="E7">
-        <v>15.92</v>
+        <v>12.56</v>
       </c>
       <c r="F7">
-        <v>17.4</v>
+        <v>12.49</v>
       </c>
       <c r="G7">
-        <v>16.44</v>
+        <v>12.43</v>
       </c>
       <c r="H7">
-        <v>13.22</v>
+        <v>10.88</v>
       </c>
       <c r="I7">
-        <v>8.859999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J7">
-        <v>4.74</v>
+        <v>6.68</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>4.47</v>
       </c>
       <c r="L7">
-        <v>0.76</v>
+        <v>2.6</v>
       </c>
       <c r="M7">
-        <v>0.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7">
-        <v>83.38</v>
+        <v>75.77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="C8">
-        <v>1.98</v>
+        <v>5.53</v>
       </c>
       <c r="D8">
-        <v>6.239999999999999</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="E8">
-        <v>9.67</v>
+        <v>9.9</v>
       </c>
       <c r="F8">
-        <v>11.98</v>
+        <v>10.5</v>
       </c>
       <c r="G8">
-        <v>15.51</v>
+        <v>12.39</v>
       </c>
       <c r="H8">
-        <v>16.28</v>
+        <v>12.87</v>
       </c>
       <c r="I8">
-        <v>14.74</v>
+        <v>12.13</v>
       </c>
       <c r="J8">
-        <v>11.08</v>
+        <v>10.43</v>
       </c>
       <c r="K8">
-        <v>7.99</v>
+        <v>7.69</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="M8">
-        <v>0.43</v>
+        <v>2.29</v>
       </c>
       <c r="N8">
-        <v>62.16</v>
+        <v>62.61</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>1.75</v>
       </c>
       <c r="C9">
-        <v>0.27</v>
+        <v>3.17</v>
       </c>
       <c r="D9">
-        <v>1.01</v>
+        <v>5.19</v>
       </c>
       <c r="E9">
-        <v>2.61</v>
+        <v>6.5</v>
       </c>
       <c r="F9">
-        <v>5.57</v>
+        <v>9.69</v>
       </c>
       <c r="G9">
-        <v>9.68</v>
+        <v>10.94</v>
       </c>
       <c r="H9">
-        <v>15.99</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>22.18</v>
+        <v>12.84</v>
       </c>
       <c r="J9">
-        <v>20.03</v>
+        <v>12.79</v>
       </c>
       <c r="K9">
-        <v>13.74</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>6.48</v>
+        <v>7.68</v>
       </c>
       <c r="M9">
-        <v>2.39</v>
+        <v>5.45</v>
       </c>
       <c r="N9">
-        <v>35.18</v>
+        <v>50.23999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C10">
-        <v>0.19</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="D10">
-        <v>0.76</v>
+        <v>1.7</v>
       </c>
       <c r="E10">
-        <v>1.97</v>
+        <v>3.09</v>
       </c>
       <c r="F10">
-        <v>4.02</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
-        <v>7.090000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="H10">
-        <v>11.25</v>
+        <v>11.99</v>
       </c>
       <c r="I10">
-        <v>15.87</v>
+        <v>15.84</v>
       </c>
       <c r="J10">
-        <v>19.17</v>
+        <v>16.81</v>
       </c>
       <c r="K10">
-        <v>19.92</v>
+        <v>15.22</v>
       </c>
       <c r="L10">
-        <v>16.03</v>
+        <v>12.18</v>
       </c>
       <c r="M10">
-        <v>3.73</v>
+        <v>7.8</v>
       </c>
       <c r="N10">
-        <v>25.28</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C11">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="D11">
-        <v>0.39</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E11">
-        <v>0.89</v>
+        <v>1.42</v>
       </c>
       <c r="F11">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="G11">
-        <v>5.16</v>
+        <v>4.12</v>
       </c>
       <c r="H11">
-        <v>8.529999999999999</v>
+        <v>6.84</v>
       </c>
       <c r="I11">
-        <v>13.86</v>
+        <v>10.06</v>
       </c>
       <c r="J11">
-        <v>20.29</v>
+        <v>14.29</v>
       </c>
       <c r="K11">
-        <v>22.18</v>
+        <v>19.39</v>
       </c>
       <c r="L11">
-        <v>19.51</v>
+        <v>21.9</v>
       </c>
       <c r="M11">
-        <v>6.819999999999999</v>
+        <v>18.44</v>
       </c>
       <c r="N11">
-        <v>17.34</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="D12">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="E12">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="F12">
-        <v>0.54</v>
+        <v>1.06</v>
       </c>
       <c r="G12">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="H12">
-        <v>3.48</v>
+        <v>4.54</v>
       </c>
       <c r="I12">
-        <v>7.920000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>14.96</v>
+        <v>13.54</v>
       </c>
       <c r="K12">
-        <v>24.38</v>
+        <v>19.98</v>
       </c>
       <c r="L12">
-        <v>29.69</v>
+        <v>24.91</v>
       </c>
       <c r="M12">
-        <v>17.27</v>
+        <v>24.87</v>
       </c>
       <c r="N12">
-        <v>5.779999999999999</v>
+        <v>8.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>1.22</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
+        <v>3.79</v>
       </c>
       <c r="I13">
-        <v>0.35</v>
+        <v>6.17</v>
       </c>
       <c r="J13">
-        <v>1.51</v>
+        <v>9.9</v>
       </c>
       <c r="K13">
-        <v>5.94</v>
+        <v>14.9</v>
       </c>
       <c r="L13">
-        <v>22.89</v>
+        <v>22.14</v>
       </c>
       <c r="M13">
-        <v>69.25</v>
+        <v>38.68</v>
       </c>
       <c r="N13">
-        <v>0.06</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2089,16 +2104,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2109,13 +2124,13 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2126,13 +2141,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2140,16 +2155,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2157,16 +2172,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2174,16 +2189,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2191,16 +2206,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2208,16 +2223,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2225,16 +2240,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2242,16 +2257,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2259,16 +2274,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2276,16 +2291,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2296,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2312,24 +2327,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2339,11 +2357,14 @@
       <c r="C2">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2353,137 +2374,167 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="C5">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-11</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="C12">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-3</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,8 +2544,11 @@
       <c r="C13">
         <v>-13</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2512,25 +2566,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2564,24 +2618,102 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="59">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,16 +58,19 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,28 +136,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓7</t>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -597,22 +606,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -621,13 +630,13 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -638,37 +647,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -685,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -694,22 +703,22 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -720,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -729,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -738,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -758,40 +767,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -802,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -814,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -826,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -840,40 +849,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -884,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -896,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -905,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -914,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -925,22 +934,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -955,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -966,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -990,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -1004,40 +1013,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1048,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1057,22 +1066,22 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -1096,13 +1105,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1110,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1124,13 +1133,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1141,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1152,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1.416666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1166,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1180,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1194,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1208,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1222,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1236,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1253,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.916666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1267,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1288,16 +1297,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1308,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.75</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1325,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D3">
-        <v>-0.8333333333333335</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1339,16 +1348,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.833333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D4">
-        <v>0.8333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1356,16 +1365,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1373,16 +1382,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D6">
-        <v>1.666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,16 +1399,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.4166666666666667</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1407,13 +1416,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.5833333333333333</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1427,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.416666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.5833333333333333</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1441,16 +1450,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D10">
-        <v>0.1666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1458,16 +1467,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1475,13 +1484,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.9166666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333337</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1495,10 +1504,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666666</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1519,46 +1528,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1566,219 +1575,219 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>33.76</v>
+        <v>39.79</v>
       </c>
       <c r="C2">
-        <v>22.06</v>
+        <v>23.43</v>
       </c>
       <c r="D2">
-        <v>15.67</v>
+        <v>14.63</v>
       </c>
       <c r="E2">
-        <v>10.68</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F2">
-        <v>7.76</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="G2">
-        <v>4.75</v>
+        <v>3.19</v>
       </c>
       <c r="H2">
-        <v>2.94</v>
+        <v>1.91</v>
       </c>
       <c r="I2">
-        <v>1.55</v>
+        <v>1.02</v>
       </c>
       <c r="J2">
-        <v>0.6899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="L2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.61999999999999</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>18.02</v>
+        <v>28.46</v>
       </c>
       <c r="C3">
-        <v>16.21</v>
+        <v>29.07</v>
       </c>
       <c r="D3">
-        <v>14.86</v>
+        <v>18.57</v>
       </c>
       <c r="E3">
-        <v>13.43</v>
+        <v>11.14</v>
       </c>
       <c r="F3">
-        <v>11.61</v>
+        <v>6.03</v>
       </c>
       <c r="G3">
-        <v>9.56</v>
+        <v>3.45</v>
       </c>
       <c r="H3">
-        <v>6.92</v>
+        <v>1.86</v>
       </c>
       <c r="I3">
-        <v>4.859999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="J3">
-        <v>2.7</v>
+        <v>0.36</v>
       </c>
       <c r="K3">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
       <c r="L3">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="M3">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>90.61</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>14.03</v>
+        <v>10.16</v>
       </c>
       <c r="C4">
-        <v>18.42</v>
+        <v>12.23</v>
       </c>
       <c r="D4">
-        <v>17.87</v>
+        <v>13.9</v>
       </c>
       <c r="E4">
-        <v>14.99</v>
+        <v>13.96</v>
       </c>
       <c r="F4">
-        <v>12.65</v>
+        <v>13.84</v>
       </c>
       <c r="G4">
-        <v>9.569999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="H4">
-        <v>5.96</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="I4">
-        <v>3.51</v>
+        <v>6.94</v>
       </c>
       <c r="J4">
-        <v>1.89</v>
+        <v>4.27</v>
       </c>
       <c r="K4">
-        <v>0.73</v>
+        <v>2.54</v>
       </c>
       <c r="L4">
-        <v>0.26</v>
+        <v>1.15</v>
       </c>
       <c r="M4">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="N4">
-        <v>93.48999999999999</v>
+        <v>84.76000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>13.67</v>
+        <v>9.16</v>
       </c>
       <c r="C5">
-        <v>14.13</v>
+        <v>11.66</v>
       </c>
       <c r="D5">
-        <v>13.97</v>
+        <v>14.23</v>
       </c>
       <c r="E5">
-        <v>14.24</v>
+        <v>13.49</v>
       </c>
       <c r="F5">
-        <v>13.08</v>
+        <v>13.03</v>
       </c>
       <c r="G5">
-        <v>10.55</v>
+        <v>11.61</v>
       </c>
       <c r="H5">
-        <v>8.48</v>
+        <v>9.73</v>
       </c>
       <c r="I5">
-        <v>5.83</v>
+        <v>6.73</v>
       </c>
       <c r="J5">
-        <v>3.61</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>1.43</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="L5">
-        <v>0.73</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>0.28</v>
+        <v>0.58</v>
       </c>
       <c r="N5">
-        <v>88.12</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>7.69</v>
+        <v>4.62</v>
       </c>
       <c r="C6">
-        <v>9.66</v>
+        <v>7.22</v>
       </c>
       <c r="D6">
-        <v>10.91</v>
+        <v>10.06</v>
       </c>
       <c r="E6">
-        <v>12.28</v>
+        <v>11.34</v>
       </c>
       <c r="F6">
-        <v>11.93</v>
+        <v>12.68</v>
       </c>
       <c r="G6">
-        <v>12.6</v>
+        <v>12.29</v>
       </c>
       <c r="H6">
-        <v>11.79</v>
+        <v>11.84</v>
       </c>
       <c r="I6">
-        <v>9.51</v>
+        <v>10.17</v>
       </c>
       <c r="J6">
-        <v>6.67</v>
+        <v>8.75</v>
       </c>
       <c r="K6">
-        <v>3.88</v>
+        <v>5.98</v>
       </c>
       <c r="L6">
-        <v>2.2</v>
+        <v>3.36</v>
       </c>
       <c r="M6">
-        <v>0.88</v>
+        <v>1.69</v>
       </c>
       <c r="N6">
-        <v>76.86000000000001</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1786,307 +1795,307 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>7.180000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="C7">
-        <v>9.370000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="D7">
-        <v>10.86</v>
+        <v>10.04</v>
       </c>
       <c r="E7">
-        <v>12.56</v>
+        <v>11.69</v>
       </c>
       <c r="F7">
-        <v>12.49</v>
+        <v>12.01</v>
       </c>
       <c r="G7">
-        <v>12.43</v>
+        <v>12.1</v>
       </c>
       <c r="H7">
-        <v>10.88</v>
+        <v>11.7</v>
       </c>
       <c r="I7">
-        <v>9.4</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J7">
-        <v>6.68</v>
+        <v>9.15</v>
       </c>
       <c r="K7">
-        <v>4.47</v>
+        <v>6.64</v>
       </c>
       <c r="L7">
-        <v>2.6</v>
+        <v>4.22</v>
       </c>
       <c r="M7">
-        <v>1.08</v>
+        <v>1.96</v>
       </c>
       <c r="N7">
-        <v>75.77</v>
+        <v>68.14</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3.5</v>
+        <v>2.29</v>
       </c>
       <c r="C8">
-        <v>5.53</v>
+        <v>4.49</v>
       </c>
       <c r="D8">
-        <v>7.920000000000001</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>9.9</v>
+        <v>9.99</v>
       </c>
       <c r="F8">
-        <v>10.5</v>
+        <v>11.24</v>
       </c>
       <c r="G8">
-        <v>12.39</v>
+        <v>12.57</v>
       </c>
       <c r="H8">
-        <v>12.87</v>
+        <v>12.37</v>
       </c>
       <c r="I8">
-        <v>12.13</v>
+        <v>11.73</v>
       </c>
       <c r="J8">
-        <v>10.43</v>
+        <v>10.06</v>
       </c>
       <c r="K8">
-        <v>7.69</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="L8">
-        <v>4.850000000000001</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="M8">
-        <v>2.29</v>
+        <v>3.11</v>
       </c>
       <c r="N8">
-        <v>62.61</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="C9">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="D9">
-        <v>5.19</v>
+        <v>5.48</v>
       </c>
       <c r="E9">
-        <v>6.5</v>
+        <v>8.84</v>
       </c>
       <c r="F9">
-        <v>9.69</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="G9">
-        <v>10.94</v>
+        <v>11.5</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="I9">
-        <v>12.84</v>
+        <v>12.44</v>
       </c>
       <c r="J9">
-        <v>12.79</v>
+        <v>12.56</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>10.12</v>
       </c>
       <c r="L9">
-        <v>7.68</v>
+        <v>7.76</v>
       </c>
       <c r="M9">
-        <v>5.45</v>
+        <v>5.71</v>
       </c>
       <c r="N9">
-        <v>50.23999999999999</v>
+        <v>51.41</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="C10">
-        <v>0.9400000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="D10">
-        <v>1.7</v>
+        <v>2.92</v>
       </c>
       <c r="E10">
-        <v>3.09</v>
+        <v>5.02</v>
       </c>
       <c r="F10">
-        <v>5.5</v>
+        <v>7.26</v>
       </c>
       <c r="G10">
-        <v>8.58</v>
+        <v>8.9</v>
       </c>
       <c r="H10">
-        <v>11.99</v>
+        <v>10.71</v>
       </c>
       <c r="I10">
-        <v>15.84</v>
+        <v>13.66</v>
       </c>
       <c r="J10">
-        <v>16.81</v>
+        <v>13.14</v>
       </c>
       <c r="K10">
-        <v>15.22</v>
+        <v>14.34</v>
       </c>
       <c r="L10">
-        <v>12.18</v>
+        <v>12.1</v>
       </c>
       <c r="M10">
-        <v>7.8</v>
+        <v>10.37</v>
       </c>
       <c r="N10">
-        <v>32.15</v>
+        <v>36.39</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C11">
-        <v>0.31</v>
+        <v>0.58</v>
       </c>
       <c r="D11">
-        <v>0.6799999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="E11">
-        <v>1.42</v>
+        <v>3.62</v>
       </c>
       <c r="F11">
-        <v>2.51</v>
+        <v>5.93</v>
       </c>
       <c r="G11">
-        <v>4.12</v>
+        <v>7.81</v>
       </c>
       <c r="H11">
-        <v>6.84</v>
+        <v>11.32</v>
       </c>
       <c r="I11">
-        <v>10.06</v>
+        <v>14.02</v>
       </c>
       <c r="J11">
-        <v>14.29</v>
+        <v>15.14</v>
       </c>
       <c r="K11">
-        <v>19.39</v>
+        <v>15.53</v>
       </c>
       <c r="L11">
-        <v>21.9</v>
+        <v>14.05</v>
       </c>
       <c r="M11">
-        <v>18.44</v>
+        <v>10.19</v>
       </c>
       <c r="N11">
-        <v>15.92</v>
+        <v>31.07</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C12">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="D12">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="E12">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="F12">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="G12">
-        <v>2.14</v>
+        <v>3.14</v>
       </c>
       <c r="H12">
-        <v>4.54</v>
+        <v>4.97</v>
       </c>
       <c r="I12">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="J12">
-        <v>13.54</v>
+        <v>11.29</v>
       </c>
       <c r="K12">
-        <v>19.98</v>
+        <v>15.71</v>
       </c>
       <c r="L12">
-        <v>24.91</v>
+        <v>22.56</v>
       </c>
       <c r="M12">
-        <v>24.87</v>
+        <v>31.91</v>
       </c>
       <c r="N12">
-        <v>8.399999999999999</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.23</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E13">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="F13">
-        <v>1.22</v>
+        <v>0.73</v>
       </c>
       <c r="G13">
-        <v>2.37</v>
+        <v>1.64</v>
       </c>
       <c r="H13">
-        <v>3.79</v>
+        <v>3.32</v>
       </c>
       <c r="I13">
-        <v>6.17</v>
+        <v>4.99</v>
       </c>
       <c r="J13">
-        <v>9.9</v>
+        <v>10.07</v>
       </c>
       <c r="K13">
-        <v>14.9</v>
+        <v>17.2</v>
       </c>
       <c r="L13">
-        <v>22.14</v>
+        <v>27.52</v>
       </c>
       <c r="M13">
-        <v>38.68</v>
+        <v>34.14</v>
       </c>
       <c r="N13">
-        <v>8.210000000000001</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
@@ -2104,16 +2113,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2121,16 +2130,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2138,16 +2147,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2155,16 +2164,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2172,16 +2181,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2189,16 +2198,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2209,13 +2218,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2223,10 +2232,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -2240,16 +2249,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2257,13 +2266,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -2274,10 +2283,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2291,16 +2300,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2308,16 +2317,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2327,112 +2336,130 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>-8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
-        <v>-8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2445,33 +2472,39 @@
       <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-11</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2479,76 +2512,91 @@
       <c r="D9">
         <v>-4</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10">
+        <v>-8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>-6</v>
       </c>
-      <c r="C10">
-        <v>-11</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-7</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="E12">
+        <v>-16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-2</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-9</v>
       </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>-13</v>
-      </c>
-      <c r="D13">
-        <v>-10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
+      <c r="E13">
+        <v>-16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2606,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2566,25 +2614,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2592,25 +2640,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
+        <v>-7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2618,25 +2666,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2644,25 +2692,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2673,22 +2721,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2696,24 +2744,76 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="59">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,19 +58,22 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,36 +139,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -606,37 +606,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -644,40 +644,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -685,34 +685,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -726,40 +726,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -767,40 +767,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -808,40 +808,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -849,40 +849,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -890,34 +890,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -931,34 +931,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -972,37 +972,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1016,34 +1016,34 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -1054,40 +1054,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1105,13 +1105,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1122,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1136,10 +1136,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.083333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1150,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1.916666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2.083333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2.666666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1259,10 +1259,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1276,10 +1276,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1297,16 +1297,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1314,16 +1314,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
-        <v>-0.9166666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1331,16 +1331,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1348,13 +1348,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2.75</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1365,16 +1365,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1385,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1399,16 +1399,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.9166666666666665</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1416,13 +1416,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.1666666666666667</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1433,16 +1433,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>-0.3333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1450,16 +1450,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D10">
-        <v>1.666666666666667</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1467,16 +1467,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.416666666666667</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>-0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1484,13 +1484,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D12">
-        <v>0.3333333333333333</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1504,13 +1504,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.08333333333333337</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1528,222 +1528,222 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>39.79</v>
+        <v>45.47</v>
       </c>
       <c r="C2">
-        <v>23.43</v>
+        <v>24.17</v>
       </c>
       <c r="D2">
-        <v>14.63</v>
+        <v>13.49</v>
       </c>
       <c r="E2">
-        <v>9.710000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="F2">
-        <v>5.970000000000001</v>
+        <v>4.53</v>
       </c>
       <c r="G2">
-        <v>3.19</v>
+        <v>2.22</v>
       </c>
       <c r="H2">
-        <v>1.91</v>
+        <v>1.49</v>
       </c>
       <c r="I2">
-        <v>1.02</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="J2">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="K2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N2">
-        <v>98.63</v>
+        <v>98.57999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>28.46</v>
+        <v>17.29</v>
       </c>
       <c r="C3">
-        <v>29.07</v>
+        <v>16.76</v>
       </c>
       <c r="D3">
-        <v>18.57</v>
+        <v>14.49</v>
       </c>
       <c r="E3">
-        <v>11.14</v>
+        <v>13.93</v>
       </c>
       <c r="F3">
-        <v>6.03</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="G3">
-        <v>3.45</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H3">
-        <v>1.86</v>
+        <v>6.99</v>
       </c>
       <c r="I3">
-        <v>0.91</v>
+        <v>4.87</v>
       </c>
       <c r="J3">
-        <v>0.36</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>0.98</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="N3">
-        <v>98.58</v>
+        <v>88.28999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>10.16</v>
+        <v>7.98</v>
       </c>
       <c r="C4">
-        <v>12.23</v>
+        <v>9.48</v>
       </c>
       <c r="D4">
-        <v>13.9</v>
+        <v>11.29</v>
       </c>
       <c r="E4">
-        <v>13.96</v>
+        <v>11.85</v>
       </c>
       <c r="F4">
-        <v>13.84</v>
+        <v>11.63</v>
       </c>
       <c r="G4">
-        <v>11.8</v>
+        <v>12.07</v>
       </c>
       <c r="H4">
-        <v>8.870000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I4">
-        <v>6.94</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="J4">
-        <v>4.27</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="K4">
-        <v>2.54</v>
+        <v>4.94</v>
       </c>
       <c r="L4">
-        <v>1.15</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>0.34</v>
+        <v>2.05</v>
       </c>
       <c r="N4">
-        <v>84.76000000000001</v>
+        <v>73.85000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>9.16</v>
+        <v>6.29</v>
       </c>
       <c r="C5">
-        <v>11.66</v>
+        <v>9.25</v>
       </c>
       <c r="D5">
-        <v>14.23</v>
+        <v>10.52</v>
       </c>
       <c r="E5">
-        <v>13.49</v>
+        <v>10.93</v>
       </c>
       <c r="F5">
-        <v>13.03</v>
+        <v>11.43</v>
       </c>
       <c r="G5">
-        <v>11.61</v>
+        <v>11.86</v>
       </c>
       <c r="H5">
-        <v>9.73</v>
+        <v>9.42</v>
       </c>
       <c r="I5">
-        <v>6.73</v>
+        <v>10.24</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>7.51</v>
       </c>
       <c r="K5">
-        <v>3.330000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>4.23</v>
       </c>
       <c r="M5">
-        <v>0.58</v>
+        <v>2.67</v>
       </c>
       <c r="N5">
-        <v>82.91</v>
+        <v>69.69999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1751,175 +1751,175 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4.62</v>
+        <v>6.04</v>
       </c>
       <c r="C6">
-        <v>7.22</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="D6">
-        <v>10.06</v>
+        <v>11.34</v>
       </c>
       <c r="E6">
-        <v>11.34</v>
+        <v>10.52</v>
       </c>
       <c r="F6">
-        <v>12.68</v>
+        <v>11.25</v>
       </c>
       <c r="G6">
-        <v>12.29</v>
+        <v>10.07</v>
       </c>
       <c r="H6">
-        <v>11.84</v>
+        <v>9.1</v>
       </c>
       <c r="I6">
-        <v>10.17</v>
+        <v>9.51</v>
       </c>
       <c r="J6">
-        <v>8.75</v>
+        <v>7.94</v>
       </c>
       <c r="K6">
-        <v>5.98</v>
+        <v>6.83</v>
       </c>
       <c r="L6">
-        <v>3.36</v>
+        <v>5.23</v>
       </c>
       <c r="M6">
-        <v>1.69</v>
+        <v>3.46</v>
       </c>
       <c r="N6">
-        <v>70.05</v>
+        <v>67.03</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.66</v>
+        <v>5.79</v>
       </c>
       <c r="C7">
-        <v>6.94</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D7">
-        <v>10.04</v>
+        <v>10.4</v>
       </c>
       <c r="E7">
-        <v>11.69</v>
+        <v>10.69</v>
       </c>
       <c r="F7">
-        <v>12.01</v>
+        <v>11.47</v>
       </c>
       <c r="G7">
-        <v>12.1</v>
+        <v>11.27</v>
       </c>
       <c r="H7">
-        <v>11.7</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I7">
-        <v>9.890000000000001</v>
+        <v>10.18</v>
       </c>
       <c r="J7">
-        <v>9.15</v>
+        <v>7.44</v>
       </c>
       <c r="K7">
-        <v>6.64</v>
+        <v>6.81</v>
       </c>
       <c r="L7">
-        <v>4.22</v>
+        <v>4.71</v>
       </c>
       <c r="M7">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>68.14</v>
+        <v>67.86</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2.29</v>
+        <v>5.67</v>
       </c>
       <c r="C8">
-        <v>4.49</v>
+        <v>10.23</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10.79</v>
       </c>
       <c r="E8">
-        <v>9.99</v>
+        <v>10.75</v>
       </c>
       <c r="F8">
-        <v>11.24</v>
+        <v>11.82</v>
       </c>
       <c r="G8">
-        <v>12.57</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="H8">
-        <v>12.37</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="I8">
-        <v>11.73</v>
+        <v>9.31</v>
       </c>
       <c r="J8">
-        <v>10.06</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="K8">
-        <v>8.369999999999999</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="L8">
-        <v>5.779999999999999</v>
+        <v>5.25</v>
       </c>
       <c r="M8">
-        <v>3.11</v>
+        <v>3.47</v>
       </c>
       <c r="N8">
-        <v>60.95</v>
+        <v>68.86</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>1.29</v>
+        <v>3.98</v>
       </c>
       <c r="C9">
-        <v>3.18</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="D9">
-        <v>5.48</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E9">
-        <v>8.84</v>
+        <v>10.27</v>
       </c>
       <c r="F9">
-        <v>9.719999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="G9">
-        <v>11.5</v>
+        <v>9.35</v>
       </c>
       <c r="H9">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
       <c r="I9">
-        <v>12.44</v>
+        <v>9.32</v>
       </c>
       <c r="J9">
-        <v>12.56</v>
+        <v>7.24</v>
       </c>
       <c r="K9">
-        <v>10.12</v>
+        <v>7.85</v>
       </c>
       <c r="L9">
-        <v>7.76</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="M9">
-        <v>5.71</v>
+        <v>4.83</v>
       </c>
       <c r="N9">
-        <v>51.41</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1927,43 +1927,43 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="D10">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="E10">
-        <v>5.02</v>
+        <v>4.27</v>
       </c>
       <c r="F10">
-        <v>7.26</v>
+        <v>5.1</v>
       </c>
       <c r="G10">
-        <v>8.9</v>
+        <v>6.31</v>
       </c>
       <c r="H10">
-        <v>10.71</v>
+        <v>9.1</v>
       </c>
       <c r="I10">
-        <v>13.66</v>
+        <v>8.73</v>
       </c>
       <c r="J10">
-        <v>13.14</v>
+        <v>11.38</v>
       </c>
       <c r="K10">
-        <v>14.34</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>12.1</v>
+        <v>15.72</v>
       </c>
       <c r="M10">
-        <v>10.37</v>
+        <v>20.73</v>
       </c>
       <c r="N10">
-        <v>36.39</v>
+        <v>29.44</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1971,131 +1971,131 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="C11">
-        <v>0.58</v>
+        <v>1.35</v>
       </c>
       <c r="D11">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="E11">
-        <v>3.62</v>
+        <v>4.48</v>
       </c>
       <c r="F11">
-        <v>5.93</v>
+        <v>5.12</v>
       </c>
       <c r="G11">
-        <v>7.81</v>
+        <v>8.15</v>
       </c>
       <c r="H11">
-        <v>11.32</v>
+        <v>9.82</v>
       </c>
       <c r="I11">
-        <v>14.02</v>
+        <v>12.27</v>
       </c>
       <c r="J11">
-        <v>15.14</v>
+        <v>14.81</v>
       </c>
       <c r="K11">
-        <v>15.53</v>
+        <v>14.91</v>
       </c>
       <c r="L11">
-        <v>14.05</v>
+        <v>14.42</v>
       </c>
       <c r="M11">
-        <v>10.19</v>
+        <v>11.73</v>
       </c>
       <c r="N11">
-        <v>31.07</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="C12">
-        <v>0.09</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
-        <v>0.37</v>
+        <v>1.82</v>
       </c>
       <c r="E12">
-        <v>0.88</v>
+        <v>2.86</v>
       </c>
       <c r="F12">
-        <v>1.56</v>
+        <v>3.83</v>
       </c>
       <c r="G12">
-        <v>3.14</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="H12">
-        <v>4.97</v>
+        <v>7.89</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="J12">
-        <v>11.29</v>
+        <v>14.16</v>
       </c>
       <c r="K12">
-        <v>15.71</v>
+        <v>16.45</v>
       </c>
       <c r="L12">
-        <v>22.56</v>
+        <v>19.22</v>
       </c>
       <c r="M12">
-        <v>31.91</v>
+        <v>17.77</v>
       </c>
       <c r="N12">
-        <v>11.03</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="D13">
-        <v>0.06999999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="E13">
-        <v>0.32</v>
+        <v>2.24</v>
       </c>
       <c r="F13">
-        <v>0.73</v>
+        <v>2.65</v>
       </c>
       <c r="G13">
-        <v>1.64</v>
+        <v>4.27</v>
       </c>
       <c r="H13">
-        <v>3.32</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="I13">
-        <v>4.99</v>
+        <v>6.78</v>
       </c>
       <c r="J13">
-        <v>10.07</v>
+        <v>11.85</v>
       </c>
       <c r="K13">
-        <v>17.2</v>
+        <v>14.08</v>
       </c>
       <c r="L13">
-        <v>27.52</v>
+        <v>20.32</v>
       </c>
       <c r="M13">
-        <v>34.14</v>
+        <v>29.76</v>
       </c>
       <c r="N13">
-        <v>6.08</v>
+        <v>17.21</v>
       </c>
     </row>
   </sheetData>
@@ -2113,16 +2113,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2133,13 +2133,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2147,16 +2147,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2164,16 +2164,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2181,16 +2181,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2198,13 +2198,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -2215,16 +2215,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2232,13 +2232,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -2249,13 +2249,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -2266,16 +2266,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2283,13 +2283,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -2300,13 +2300,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -2320,13 +2320,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2336,30 +2336,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2375,211 +2378,244 @@
       <c r="E2">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>-4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-11</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>-3</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-8</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>-6</v>
       </c>
       <c r="C8">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-9</v>
+      </c>
+      <c r="F8">
         <v>-6</v>
       </c>
-      <c r="E8">
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>-1</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>-7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-16</v>
+      </c>
+      <c r="F10">
+        <v>-9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>-10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>-4</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>-7</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>-8</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-6</v>
-      </c>
-      <c r="C11">
-        <v>-13</v>
-      </c>
-      <c r="D11">
-        <v>-10</v>
-      </c>
-      <c r="E11">
-        <v>-9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>-7</v>
-      </c>
-      <c r="E12">
-        <v>-16</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>-12</v>
+      </c>
+      <c r="G12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2595,8 +2631,11 @@
       <c r="E13">
         <v>-16</v>
       </c>
-      <c r="F13" t="s">
-        <v>47</v>
+      <c r="F13">
+        <v>-21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2606,7 +2645,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2640,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2666,25 +2705,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2695,22 +2734,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2718,25 +2757,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2744,25 +2783,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2773,22 +2812,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2796,24 +2835,102 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-12</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="64">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,22 +58,25 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,28 +142,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -176,6 +188,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -606,31 +621,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -647,34 +662,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -691,28 +706,28 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -726,40 +741,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -773,16 +788,16 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -794,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -811,34 +826,34 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -852,37 +867,37 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -902,10 +917,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -914,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -937,28 +952,28 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -1025,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1057,34 +1072,34 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1105,13 +1120,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1122,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.166666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1133,10 +1148,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1.333333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1147,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1161,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.083333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1175,13 +1190,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.333333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1192,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2.416666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1203,13 +1218,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1220,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.916666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1234,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>2.916666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1245,13 +1260,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1259,13 +1274,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1276,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1297,16 +1312,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1317,13 +1332,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1331,16 +1346,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D3">
-        <v>-0.8333333333333335</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1348,16 +1363,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.75</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4">
-        <v>-1.25</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1365,16 +1380,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.75</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1385,10 +1400,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D6">
-        <v>1.75</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1399,16 +1414,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2.666666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D7">
-        <v>1.666666666666667</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1416,16 +1431,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2.583333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D8">
-        <v>-1.416666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1436,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1450,16 +1465,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.083333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>-0.9166666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1467,16 +1482,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1484,16 +1499,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D12">
-        <v>-0.3333333333333333</v>
+        <v>-0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1504,10 +1519,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.583333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D13">
-        <v>0.5833333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1528,46 +1543,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1575,43 +1590,43 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>45.47</v>
+        <v>49.94</v>
       </c>
       <c r="C2">
-        <v>24.17</v>
+        <v>23.53</v>
       </c>
       <c r="D2">
-        <v>13.49</v>
+        <v>11.79</v>
       </c>
       <c r="E2">
-        <v>7.21</v>
+        <v>6.4</v>
       </c>
       <c r="F2">
-        <v>4.53</v>
+        <v>3.85</v>
       </c>
       <c r="G2">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="H2">
-        <v>1.49</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="I2">
-        <v>0.8500000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="J2">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="K2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="L2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M2">
         <v>0.02</v>
       </c>
       <c r="N2">
-        <v>98.57999999999998</v>
+        <v>98.81999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1619,439 +1634,439 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.29</v>
+        <v>12.98</v>
       </c>
       <c r="C3">
-        <v>16.76</v>
+        <v>13.65</v>
       </c>
       <c r="D3">
-        <v>14.49</v>
+        <v>13.52</v>
       </c>
       <c r="E3">
-        <v>13.93</v>
+        <v>11.87</v>
       </c>
       <c r="F3">
-        <v>9.969999999999999</v>
+        <v>12.61</v>
       </c>
       <c r="G3">
-        <v>8.859999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H3">
-        <v>6.99</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="I3">
-        <v>4.87</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="J3">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>3.57</v>
       </c>
       <c r="L3">
-        <v>0.98</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
-        <v>0.51</v>
+        <v>1.22</v>
       </c>
       <c r="N3">
-        <v>88.28999999999999</v>
+        <v>81.63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>7.98</v>
+        <v>7.16</v>
       </c>
       <c r="C4">
-        <v>9.48</v>
+        <v>10.57</v>
       </c>
       <c r="D4">
-        <v>11.29</v>
+        <v>10.62</v>
       </c>
       <c r="E4">
-        <v>11.85</v>
+        <v>12.29</v>
       </c>
       <c r="F4">
-        <v>11.63</v>
+        <v>10.73</v>
       </c>
       <c r="G4">
-        <v>12.07</v>
+        <v>9.33</v>
       </c>
       <c r="H4">
-        <v>9.550000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="I4">
-        <v>8.559999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="J4">
-        <v>7.199999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="K4">
-        <v>4.94</v>
+        <v>6.47</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="M4">
-        <v>2.05</v>
+        <v>3.45</v>
       </c>
       <c r="N4">
-        <v>73.85000000000001</v>
+        <v>71.29000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>6.29</v>
+        <v>6.79</v>
       </c>
       <c r="C5">
-        <v>9.25</v>
+        <v>9.33</v>
       </c>
       <c r="D5">
-        <v>10.52</v>
+        <v>9.9</v>
       </c>
       <c r="E5">
-        <v>10.93</v>
+        <v>11.54</v>
       </c>
       <c r="F5">
-        <v>11.43</v>
+        <v>11.33</v>
       </c>
       <c r="G5">
-        <v>11.86</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="H5">
-        <v>9.42</v>
+        <v>11.46</v>
       </c>
       <c r="I5">
-        <v>10.24</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J5">
-        <v>7.51</v>
+        <v>6.64</v>
       </c>
       <c r="K5">
-        <v>5.65</v>
+        <v>6.56</v>
       </c>
       <c r="L5">
-        <v>4.23</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="M5">
-        <v>2.67</v>
+        <v>3.49</v>
       </c>
       <c r="N5">
-        <v>69.69999999999999</v>
+        <v>69.39999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>6.04</v>
+        <v>5.63</v>
       </c>
       <c r="C6">
-        <v>8.709999999999999</v>
+        <v>10.09</v>
       </c>
       <c r="D6">
-        <v>11.34</v>
+        <v>11.48</v>
       </c>
       <c r="E6">
-        <v>10.52</v>
+        <v>10.35</v>
       </c>
       <c r="F6">
-        <v>11.25</v>
+        <v>10.02</v>
       </c>
       <c r="G6">
-        <v>10.07</v>
+        <v>11.83</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>7.049999999999999</v>
       </c>
       <c r="I6">
-        <v>9.51</v>
+        <v>7.69</v>
       </c>
       <c r="J6">
-        <v>7.94</v>
+        <v>8.58</v>
       </c>
       <c r="K6">
-        <v>6.83</v>
+        <v>6.39</v>
       </c>
       <c r="L6">
-        <v>5.23</v>
+        <v>5.98</v>
       </c>
       <c r="M6">
-        <v>3.46</v>
+        <v>4.91</v>
       </c>
       <c r="N6">
-        <v>67.03</v>
+        <v>66.44999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>5.79</v>
+        <v>5.48</v>
       </c>
       <c r="C7">
-        <v>8.619999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="D7">
-        <v>10.4</v>
+        <v>10.52</v>
       </c>
       <c r="E7">
-        <v>10.69</v>
+        <v>11.66</v>
       </c>
       <c r="F7">
-        <v>11.47</v>
+        <v>8.99</v>
       </c>
       <c r="G7">
-        <v>11.27</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>9.619999999999999</v>
+        <v>12.05</v>
       </c>
       <c r="I7">
-        <v>10.18</v>
+        <v>7.41</v>
       </c>
       <c r="J7">
-        <v>7.44</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K7">
-        <v>6.81</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="L7">
-        <v>4.71</v>
+        <v>5.29</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="N7">
-        <v>67.86</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>5.67</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="C8">
-        <v>10.23</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="D8">
-        <v>10.79</v>
+        <v>10.26</v>
       </c>
       <c r="E8">
-        <v>10.75</v>
+        <v>9.98</v>
       </c>
       <c r="F8">
-        <v>11.82</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G8">
-        <v>9.969999999999999</v>
+        <v>12.05</v>
       </c>
       <c r="H8">
-        <v>9.629999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="I8">
-        <v>9.31</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="J8">
-        <v>6.600000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K8">
-        <v>6.510000000000001</v>
+        <v>7.01</v>
       </c>
       <c r="L8">
-        <v>5.25</v>
+        <v>6.569999999999999</v>
       </c>
       <c r="M8">
-        <v>3.47</v>
+        <v>5.72</v>
       </c>
       <c r="N8">
-        <v>68.86</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>3.98</v>
+        <v>4.89</v>
       </c>
       <c r="C9">
-        <v>8.559999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="D9">
-        <v>9.520000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="E9">
-        <v>10.27</v>
+        <v>10.85</v>
       </c>
       <c r="F9">
-        <v>11.2</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="G9">
-        <v>9.35</v>
+        <v>10.91</v>
       </c>
       <c r="H9">
-        <v>11.42</v>
+        <v>10.5</v>
       </c>
       <c r="I9">
-        <v>9.32</v>
+        <v>6.81</v>
       </c>
       <c r="J9">
-        <v>7.24</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K9">
-        <v>7.85</v>
+        <v>7.82</v>
       </c>
       <c r="L9">
-        <v>6.460000000000001</v>
+        <v>6.39</v>
       </c>
       <c r="M9">
-        <v>4.83</v>
+        <v>5.59</v>
       </c>
       <c r="N9">
-        <v>64.3</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="C10">
-        <v>1.53</v>
+        <v>2.45</v>
       </c>
       <c r="D10">
-        <v>2.48</v>
+        <v>3.78</v>
       </c>
       <c r="E10">
-        <v>4.27</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="F10">
-        <v>5.1</v>
+        <v>7.06</v>
       </c>
       <c r="G10">
-        <v>6.31</v>
+        <v>6.77</v>
       </c>
       <c r="H10">
-        <v>9.1</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="I10">
-        <v>8.73</v>
+        <v>12.16</v>
       </c>
       <c r="J10">
-        <v>11.38</v>
+        <v>11.3</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>12.41</v>
       </c>
       <c r="L10">
-        <v>15.72</v>
+        <v>15.25</v>
       </c>
       <c r="M10">
-        <v>20.73</v>
+        <v>16.2</v>
       </c>
       <c r="N10">
-        <v>29.44</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.46</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C11">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
       <c r="D11">
-        <v>2.48</v>
+        <v>4.07</v>
       </c>
       <c r="E11">
-        <v>4.48</v>
+        <v>3.73</v>
       </c>
       <c r="F11">
-        <v>5.12</v>
+        <v>6.69</v>
       </c>
       <c r="G11">
-        <v>8.15</v>
+        <v>7.94</v>
       </c>
       <c r="H11">
-        <v>9.82</v>
+        <v>6.49</v>
       </c>
       <c r="I11">
-        <v>12.27</v>
+        <v>10.93</v>
       </c>
       <c r="J11">
-        <v>14.81</v>
+        <v>11.85</v>
       </c>
       <c r="K11">
-        <v>14.91</v>
+        <v>11.6</v>
       </c>
       <c r="L11">
-        <v>14.42</v>
+        <v>14.89</v>
       </c>
       <c r="M11">
-        <v>11.73</v>
+        <v>18.79</v>
       </c>
       <c r="N11">
-        <v>31.86</v>
+        <v>31.94</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>1.73</v>
       </c>
       <c r="D12">
-        <v>1.82</v>
+        <v>2.63</v>
       </c>
       <c r="E12">
-        <v>2.86</v>
+        <v>4.14</v>
       </c>
       <c r="F12">
-        <v>3.83</v>
+        <v>6.87</v>
       </c>
       <c r="G12">
-        <v>5.600000000000001</v>
+        <v>6.43</v>
       </c>
       <c r="H12">
-        <v>7.89</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I12">
-        <v>9.379999999999999</v>
+        <v>12.07</v>
       </c>
       <c r="J12">
-        <v>14.16</v>
+        <v>12.05</v>
       </c>
       <c r="K12">
-        <v>16.45</v>
+        <v>15.68</v>
       </c>
       <c r="L12">
-        <v>19.22</v>
+        <v>14.99</v>
       </c>
       <c r="M12">
-        <v>17.77</v>
+        <v>13.24</v>
       </c>
       <c r="N12">
-        <v>23.02</v>
+        <v>31.97</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2059,43 +2074,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>0.59</v>
+        <v>1.07</v>
       </c>
       <c r="D13">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="E13">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="F13">
-        <v>2.65</v>
+        <v>4.54</v>
       </c>
       <c r="G13">
-        <v>4.27</v>
+        <v>4.7</v>
       </c>
       <c r="H13">
-        <v>5.970000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="I13">
-        <v>6.78</v>
+        <v>10.75</v>
       </c>
       <c r="J13">
-        <v>11.85</v>
+        <v>10.92</v>
       </c>
       <c r="K13">
-        <v>14.08</v>
+        <v>14.75</v>
       </c>
       <c r="L13">
-        <v>20.32</v>
+        <v>19.06</v>
       </c>
       <c r="M13">
-        <v>29.76</v>
+        <v>22.97</v>
       </c>
       <c r="N13">
-        <v>17.21</v>
+        <v>21.55</v>
       </c>
     </row>
   </sheetData>
@@ -2113,16 +2128,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2133,13 +2148,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2147,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -2156,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2164,16 +2179,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2181,16 +2196,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2198,16 +2213,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2215,16 +2230,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2232,16 +2247,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2249,16 +2264,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2266,16 +2281,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2283,16 +2298,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2300,16 +2315,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2320,13 +2335,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2336,33 +2351,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2381,223 +2399,253 @@
       <c r="F2">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-11</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-13</v>
+      </c>
+      <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-16</v>
+      </c>
+      <c r="F9">
+        <v>-9</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>-4</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
         <v>-11</v>
       </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>-8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-13</v>
-      </c>
-      <c r="D8">
-        <v>-10</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-16</v>
-      </c>
-      <c r="F10">
-        <v>-9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
-      <c r="F11">
-        <v>-10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2609,13 +2657,16 @@
         <v>-7</v>
       </c>
       <c r="F12">
-        <v>-12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-10</v>
+      </c>
+      <c r="G12">
+        <v>-16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2634,8 +2685,11 @@
       <c r="F13">
         <v>-21</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
+      <c r="G13">
+        <v>-23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2699,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2653,25 +2707,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2679,25 +2733,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2708,22 +2762,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2731,25 +2785,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2757,25 +2811,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>-23</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2783,25 +2837,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2809,25 +2863,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2835,22 +2889,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -2864,22 +2918,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2887,25 +2941,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>-12</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2913,25 +2967,77 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="66">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,25 +58,28 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,37 +145,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -621,34 +627,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -665,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -683,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -706,16 +712,16 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -724,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -747,16 +753,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -765,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -785,34 +791,34 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -847,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -870,31 +876,31 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -929,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -952,31 +958,31 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -993,31 +999,31 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1028,40 +1034,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1069,40 +1075,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1120,13 +1126,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1137,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1148,10 +1154,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.833333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1162,13 +1168,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1176,13 +1182,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1190,10 +1196,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.583333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1204,13 +1210,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1218,10 +1224,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1232,10 +1238,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3.333333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1249,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3.583333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1263,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1277,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1291,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1312,16 +1318,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1332,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D2">
-        <v>1.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1349,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3.75</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1366,13 +1372,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D4">
-        <v>-1.416666666666667</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1380,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.416666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-1.583333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1400,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D6">
-        <v>2.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1414,16 +1420,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.9166666666666665</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1431,16 +1437,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2.666666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8">
-        <v>1.666666666666667</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1448,16 +1454,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.583333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D9">
-        <v>-0.4166666666666665</v>
+        <v>1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1465,13 +1471,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1482,16 +1488,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.333333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.6666666666666665</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1499,13 +1505,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2.25</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.75</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1516,16 +1522,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2.25</v>
       </c>
       <c r="D13">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1543,46 +1549,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1590,351 +1596,351 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>49.94</v>
+        <v>45.2</v>
       </c>
       <c r="C2">
-        <v>23.53</v>
+        <v>22.66</v>
       </c>
       <c r="D2">
-        <v>11.79</v>
+        <v>12.56</v>
       </c>
       <c r="E2">
-        <v>6.4</v>
+        <v>8.35</v>
       </c>
       <c r="F2">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G2">
-        <v>2.46</v>
+        <v>3.03</v>
       </c>
       <c r="H2">
-        <v>0.8500000000000001</v>
+        <v>2.53</v>
       </c>
       <c r="I2">
-        <v>0.63</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="J2">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="K2">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="M2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>98.81999999999999</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>12.98</v>
+        <v>7.89</v>
       </c>
       <c r="C3">
-        <v>13.65</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D3">
-        <v>13.52</v>
+        <v>11.05</v>
       </c>
       <c r="E3">
-        <v>11.87</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F3">
-        <v>12.61</v>
+        <v>9.68</v>
       </c>
       <c r="G3">
-        <v>8.529999999999999</v>
+        <v>12.81</v>
       </c>
       <c r="H3">
-        <v>8.469999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="I3">
-        <v>7.380000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="J3">
-        <v>3.95</v>
+        <v>8.93</v>
       </c>
       <c r="K3">
-        <v>3.57</v>
+        <v>6.05</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>5.21</v>
       </c>
       <c r="M3">
-        <v>1.22</v>
+        <v>3.69</v>
       </c>
       <c r="N3">
-        <v>81.63</v>
+        <v>68.81999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>7.16</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="C4">
-        <v>10.57</v>
+        <v>9.17</v>
       </c>
       <c r="D4">
-        <v>10.62</v>
+        <v>11.08</v>
       </c>
       <c r="E4">
-        <v>12.29</v>
+        <v>10.38</v>
       </c>
       <c r="F4">
-        <v>10.73</v>
+        <v>8.94</v>
       </c>
       <c r="G4">
-        <v>9.33</v>
+        <v>12.09</v>
       </c>
       <c r="H4">
-        <v>10.59</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="I4">
-        <v>7.95</v>
+        <v>7.21</v>
       </c>
       <c r="J4">
-        <v>6.59</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="K4">
-        <v>6.47</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="L4">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="M4">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="N4">
-        <v>71.29000000000001</v>
+        <v>68.84999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>6.79</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="C5">
-        <v>9.33</v>
+        <v>9.9</v>
       </c>
       <c r="D5">
-        <v>9.9</v>
+        <v>9.58</v>
       </c>
       <c r="E5">
-        <v>11.54</v>
+        <v>9.41</v>
       </c>
       <c r="F5">
-        <v>11.33</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>9.049999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="H5">
-        <v>11.46</v>
+        <v>7.31</v>
       </c>
       <c r="I5">
-        <v>8.880000000000001</v>
+        <v>10.66</v>
       </c>
       <c r="J5">
-        <v>6.64</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="K5">
-        <v>6.56</v>
+        <v>5.83</v>
       </c>
       <c r="L5">
-        <v>5.029999999999999</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="M5">
-        <v>3.49</v>
+        <v>4.46</v>
       </c>
       <c r="N5">
-        <v>69.39999999999999</v>
+        <v>64.84</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5.63</v>
+        <v>7.28</v>
       </c>
       <c r="C6">
-        <v>10.09</v>
+        <v>8.99</v>
       </c>
       <c r="D6">
-        <v>11.48</v>
+        <v>10.5</v>
       </c>
       <c r="E6">
-        <v>10.35</v>
+        <v>8.32</v>
       </c>
       <c r="F6">
-        <v>10.02</v>
+        <v>10.97</v>
       </c>
       <c r="G6">
-        <v>11.83</v>
+        <v>12.16</v>
       </c>
       <c r="H6">
-        <v>7.049999999999999</v>
+        <v>6.47</v>
       </c>
       <c r="I6">
-        <v>7.69</v>
+        <v>9.19</v>
       </c>
       <c r="J6">
-        <v>8.58</v>
+        <v>9.35</v>
       </c>
       <c r="K6">
-        <v>6.39</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="L6">
-        <v>5.98</v>
+        <v>5.55</v>
       </c>
       <c r="M6">
-        <v>4.91</v>
+        <v>4.69</v>
       </c>
       <c r="N6">
-        <v>66.44999999999999</v>
+        <v>64.69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5.48</v>
+        <v>6.87</v>
       </c>
       <c r="C7">
-        <v>8.16</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="D7">
-        <v>10.52</v>
+        <v>10.45</v>
       </c>
       <c r="E7">
-        <v>11.66</v>
+        <v>8.93</v>
       </c>
       <c r="F7">
-        <v>8.99</v>
+        <v>12.33</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="H7">
-        <v>12.05</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="I7">
-        <v>7.41</v>
+        <v>10.14</v>
       </c>
       <c r="J7">
-        <v>8.390000000000001</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="K7">
-        <v>7.649999999999999</v>
+        <v>6.09</v>
       </c>
       <c r="L7">
-        <v>5.29</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="M7">
-        <v>4.399999999999999</v>
+        <v>4.37</v>
       </c>
       <c r="N7">
-        <v>66.86</v>
+        <v>64.84999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>5.029999999999999</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="C8">
-        <v>8.690000000000001</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="D8">
-        <v>10.26</v>
+        <v>9.68</v>
       </c>
       <c r="E8">
-        <v>9.98</v>
+        <v>11.6</v>
       </c>
       <c r="F8">
-        <v>8.529999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="G8">
-        <v>12.05</v>
+        <v>6.22</v>
       </c>
       <c r="H8">
-        <v>8.93</v>
+        <v>10.41</v>
       </c>
       <c r="I8">
-        <v>7.340000000000001</v>
+        <v>10.62</v>
       </c>
       <c r="J8">
-        <v>9.890000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="K8">
-        <v>7.01</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="L8">
-        <v>6.569999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="M8">
-        <v>5.72</v>
+        <v>5.21</v>
       </c>
       <c r="N8">
-        <v>63.47</v>
+        <v>64.11</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>4.89</v>
+        <v>5.96</v>
       </c>
       <c r="C9">
-        <v>8.41</v>
+        <v>9.07</v>
       </c>
       <c r="D9">
-        <v>9.6</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="E9">
-        <v>10.85</v>
+        <v>10.5</v>
       </c>
       <c r="F9">
-        <v>8.780000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="G9">
-        <v>10.91</v>
+        <v>7.24</v>
       </c>
       <c r="H9">
-        <v>10.5</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I9">
-        <v>6.81</v>
+        <v>11.55</v>
       </c>
       <c r="J9">
-        <v>9.449999999999999</v>
+        <v>7.07</v>
       </c>
       <c r="K9">
-        <v>7.82</v>
+        <v>7.13</v>
       </c>
       <c r="L9">
-        <v>6.39</v>
+        <v>7.17</v>
       </c>
       <c r="M9">
-        <v>5.59</v>
+        <v>5.66</v>
       </c>
       <c r="N9">
-        <v>63.94</v>
+        <v>61.42</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1942,175 +1948,175 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.74</v>
+        <v>3.34</v>
       </c>
       <c r="C10">
-        <v>2.45</v>
+        <v>6.1</v>
       </c>
       <c r="D10">
-        <v>3.78</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="E10">
-        <v>4.590000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F10">
-        <v>7.06</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="G10">
-        <v>6.77</v>
+        <v>7.08</v>
       </c>
       <c r="H10">
-        <v>7.290000000000001</v>
+        <v>11.97</v>
       </c>
       <c r="I10">
-        <v>12.16</v>
+        <v>9.5</v>
       </c>
       <c r="J10">
-        <v>11.3</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="K10">
-        <v>12.41</v>
+        <v>10.66</v>
       </c>
       <c r="L10">
-        <v>15.25</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M10">
-        <v>16.2</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="N10">
-        <v>32.68</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.7000000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="C11">
-        <v>2.32</v>
+        <v>2.99</v>
       </c>
       <c r="D11">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="E11">
-        <v>3.73</v>
+        <v>6.12</v>
       </c>
       <c r="F11">
-        <v>6.69</v>
+        <v>4.69</v>
       </c>
       <c r="G11">
-        <v>7.94</v>
+        <v>7.13</v>
       </c>
       <c r="H11">
-        <v>6.49</v>
+        <v>11.55</v>
       </c>
       <c r="I11">
-        <v>10.93</v>
+        <v>8.25</v>
       </c>
       <c r="J11">
-        <v>11.85</v>
+        <v>9.98</v>
       </c>
       <c r="K11">
-        <v>11.6</v>
+        <v>13.18</v>
       </c>
       <c r="L11">
-        <v>14.89</v>
+        <v>13.14</v>
       </c>
       <c r="M11">
-        <v>18.79</v>
+        <v>16.97</v>
       </c>
       <c r="N11">
-        <v>31.94</v>
+        <v>38.48</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="C12">
-        <v>1.73</v>
+        <v>2.09</v>
       </c>
       <c r="D12">
-        <v>2.63</v>
+        <v>3.18</v>
       </c>
       <c r="E12">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="F12">
-        <v>6.87</v>
+        <v>4.02</v>
       </c>
       <c r="G12">
-        <v>6.43</v>
+        <v>7.37</v>
       </c>
       <c r="H12">
-        <v>9.710000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="I12">
-        <v>12.07</v>
+        <v>7.21</v>
       </c>
       <c r="J12">
-        <v>12.05</v>
+        <v>11.86</v>
       </c>
       <c r="K12">
-        <v>15.68</v>
+        <v>15.23</v>
       </c>
       <c r="L12">
-        <v>14.99</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>13.24</v>
+        <v>19.92</v>
       </c>
       <c r="N12">
-        <v>31.97</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="C13">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="D13">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="E13">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F13">
-        <v>4.54</v>
+        <v>3.26</v>
       </c>
       <c r="G13">
-        <v>4.7</v>
+        <v>6.11</v>
       </c>
       <c r="H13">
-        <v>6.61</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="I13">
-        <v>10.75</v>
+        <v>7.59</v>
       </c>
       <c r="J13">
-        <v>10.92</v>
+        <v>13.4</v>
       </c>
       <c r="K13">
-        <v>14.75</v>
+        <v>15.01</v>
       </c>
       <c r="L13">
-        <v>19.06</v>
+        <v>20.83</v>
       </c>
       <c r="M13">
-        <v>22.97</v>
+        <v>21.67</v>
       </c>
       <c r="N13">
-        <v>21.55</v>
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>
@@ -2128,16 +2134,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2148,13 +2154,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2165,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2182,13 +2188,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2199,13 +2205,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2213,13 +2219,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -2230,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2250,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -2264,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -2284,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -2301,13 +2307,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2318,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2335,13 +2341,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-23</v>
+        <v>-31</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2357,394 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-13</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+      <c r="E6">
+        <v>-9</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-16</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+      <c r="G7">
+        <v>-3</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-11</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
+        <v>-11</v>
+      </c>
+      <c r="H11">
+        <v>-17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-4</v>
+      </c>
+      <c r="E12">
+        <v>-7</v>
+      </c>
+      <c r="F12">
+        <v>-10</v>
+      </c>
+      <c r="G12">
+        <v>-16</v>
+      </c>
+      <c r="H12">
+        <v>-23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <v>-9</v>
+      </c>
+      <c r="E13">
+        <v>-16</v>
+      </c>
+      <c r="F13">
+        <v>-21</v>
+      </c>
+      <c r="G13">
+        <v>-23</v>
+      </c>
+      <c r="H13">
+        <v>-31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2359,373 +2752,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>28</v>
-      </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>-4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>-11</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-13</v>
-      </c>
-      <c r="D7">
-        <v>-10</v>
-      </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
-      <c r="C8">
-        <v>-8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
-        <v>-16</v>
-      </c>
-      <c r="F9">
-        <v>-9</v>
-      </c>
-      <c r="G9">
-        <v>-3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>-12</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>-11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>-8</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>-4</v>
-      </c>
-      <c r="E12">
-        <v>-7</v>
-      </c>
-      <c r="F12">
-        <v>-10</v>
-      </c>
-      <c r="G12">
-        <v>-16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>-9</v>
-      </c>
-      <c r="E13">
-        <v>-16</v>
-      </c>
-      <c r="F13">
-        <v>-21</v>
-      </c>
-      <c r="G13">
-        <v>-23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3038,6 +3083,32 @@
       </c>
       <c r="H13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="66">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,28 +58,31 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,39 +148,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -642,13 +642,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -665,40 +665,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -706,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -727,19 +727,19 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -747,19 +747,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -768,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -788,40 +788,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -829,40 +829,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -870,40 +870,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -911,40 +911,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -952,40 +952,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -993,40 +993,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1034,40 +1034,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1075,40 +1075,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1126,13 +1126,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1143,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1154,13 +1154,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1168,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1182,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.75</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1196,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3.416666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1224,13 +1224,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1238,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1252,13 +1252,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4.166666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1266,13 +1266,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,10 +1283,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5.333333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1318,16 +1318,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1338,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5.083333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D2">
         <v>1.083333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1355,13 +1355,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.916666666666667</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1369,16 +1369,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D4">
-        <v>-2.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1386,16 +1386,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5">
-        <v>-1.166666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1403,16 +1403,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D6">
-        <v>1.666666666666667</v>
+        <v>-1.75</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1420,16 +1420,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-1.416666666666667</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.4166666666666665</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1454,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D9">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1471,16 +1471,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D10">
-        <v>1.166666666666667</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1488,16 +1488,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3.166666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D11">
-        <v>2.166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1508,13 +1508,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>-0.5833333333333335</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1525,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2.25</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.75</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1549,46 +1549,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1596,175 +1596,175 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>45.2</v>
+        <v>44.52</v>
       </c>
       <c r="C2">
-        <v>22.66</v>
+        <v>23.79</v>
       </c>
       <c r="D2">
-        <v>12.56</v>
+        <v>13.16</v>
       </c>
       <c r="E2">
-        <v>8.35</v>
+        <v>6.25</v>
       </c>
       <c r="F2">
-        <v>3.95</v>
+        <v>6.18</v>
       </c>
       <c r="G2">
-        <v>3.03</v>
+        <v>2.66</v>
       </c>
       <c r="H2">
-        <v>2.53</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="I2">
-        <v>0.7799999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="J2">
-        <v>0.45</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="K2">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="L2">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="M2">
         <v>0.04</v>
       </c>
       <c r="N2">
-        <v>98.28</v>
+        <v>97.48</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>7.89</v>
+        <v>8.32</v>
       </c>
       <c r="C3">
-        <v>9.449999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="D3">
-        <v>11.05</v>
+        <v>12.18</v>
       </c>
       <c r="E3">
-        <v>9.529999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F3">
-        <v>9.68</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="G3">
-        <v>12.81</v>
+        <v>13.64</v>
       </c>
       <c r="H3">
-        <v>8.41</v>
+        <v>9.67</v>
       </c>
       <c r="I3">
-        <v>7.3</v>
+        <v>4.98</v>
       </c>
       <c r="J3">
-        <v>8.93</v>
+        <v>7.8</v>
       </c>
       <c r="K3">
-        <v>6.05</v>
+        <v>7.48</v>
       </c>
       <c r="L3">
-        <v>5.21</v>
+        <v>4.38</v>
       </c>
       <c r="M3">
-        <v>3.69</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="N3">
-        <v>68.81999999999999</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>7.470000000000001</v>
+        <v>7.41</v>
       </c>
       <c r="C4">
-        <v>9.17</v>
+        <v>11.07</v>
       </c>
       <c r="D4">
-        <v>11.08</v>
+        <v>12.27</v>
       </c>
       <c r="E4">
-        <v>10.38</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F4">
-        <v>8.94</v>
+        <v>9.91</v>
       </c>
       <c r="G4">
-        <v>12.09</v>
+        <v>13.58</v>
       </c>
       <c r="H4">
-        <v>9.719999999999999</v>
+        <v>7.27</v>
       </c>
       <c r="I4">
-        <v>7.21</v>
+        <v>5.25</v>
       </c>
       <c r="J4">
-        <v>8.870000000000001</v>
+        <v>8.74</v>
       </c>
       <c r="K4">
-        <v>6.710000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="L4">
-        <v>4.65</v>
+        <v>4.82</v>
       </c>
       <c r="M4">
-        <v>3.71</v>
+        <v>4.58</v>
       </c>
       <c r="N4">
-        <v>68.84999999999999</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>7.290000000000001</v>
+        <v>7.31</v>
       </c>
       <c r="C5">
-        <v>9.9</v>
+        <v>11.36</v>
       </c>
       <c r="D5">
-        <v>9.58</v>
+        <v>11.78</v>
       </c>
       <c r="E5">
-        <v>9.41</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="G5">
-        <v>8.75</v>
+        <v>12.67</v>
       </c>
       <c r="H5">
-        <v>7.31</v>
+        <v>5.42</v>
       </c>
       <c r="I5">
-        <v>10.66</v>
+        <v>5.87</v>
       </c>
       <c r="J5">
-        <v>8.260000000000002</v>
+        <v>9.34</v>
       </c>
       <c r="K5">
-        <v>5.83</v>
+        <v>6.48</v>
       </c>
       <c r="L5">
-        <v>5.949999999999999</v>
+        <v>4.98</v>
       </c>
       <c r="M5">
-        <v>4.46</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="N5">
-        <v>64.84</v>
+        <v>67.72</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1772,131 +1772,131 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <v>6.78</v>
+      </c>
+      <c r="C6">
+        <v>7.39</v>
+      </c>
+      <c r="D6">
+        <v>9.76</v>
+      </c>
+      <c r="E6">
+        <v>11.54</v>
+      </c>
+      <c r="F6">
         <v>7.28</v>
       </c>
-      <c r="C6">
-        <v>8.99</v>
-      </c>
-      <c r="D6">
-        <v>10.5</v>
-      </c>
-      <c r="E6">
-        <v>8.32</v>
-      </c>
-      <c r="F6">
-        <v>10.97</v>
-      </c>
       <c r="G6">
-        <v>12.16</v>
+        <v>9.24</v>
       </c>
       <c r="H6">
-        <v>6.47</v>
+        <v>13.39</v>
       </c>
       <c r="I6">
-        <v>9.19</v>
+        <v>7.94</v>
       </c>
       <c r="J6">
-        <v>9.35</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="K6">
-        <v>6.529999999999999</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="L6">
-        <v>5.55</v>
+        <v>5.93</v>
       </c>
       <c r="M6">
-        <v>4.69</v>
+        <v>5.06</v>
       </c>
       <c r="N6">
-        <v>64.69</v>
+        <v>65.38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>6.87</v>
+        <v>6.370000000000001</v>
       </c>
       <c r="C7">
-        <v>9.120000000000001</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="D7">
-        <v>10.45</v>
+        <v>8.49</v>
       </c>
       <c r="E7">
-        <v>8.93</v>
+        <v>12.53</v>
       </c>
       <c r="F7">
-        <v>12.33</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G7">
-        <v>10.01</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="H7">
-        <v>7.140000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="I7">
-        <v>10.14</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="J7">
-        <v>8.649999999999999</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="K7">
-        <v>6.09</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L7">
-        <v>5.899999999999999</v>
+        <v>6.03</v>
       </c>
       <c r="M7">
-        <v>4.37</v>
+        <v>4.82</v>
       </c>
       <c r="N7">
-        <v>64.84999999999999</v>
+        <v>64.45</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>6.460000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="C8">
-        <v>9.629999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="D8">
-        <v>9.68</v>
+        <v>10.77</v>
       </c>
       <c r="E8">
-        <v>11.6</v>
+        <v>11.05</v>
       </c>
       <c r="F8">
-        <v>10.11</v>
+        <v>7.04</v>
       </c>
       <c r="G8">
-        <v>6.22</v>
+        <v>11.62</v>
       </c>
       <c r="H8">
-        <v>10.41</v>
+        <v>12.37</v>
       </c>
       <c r="I8">
-        <v>10.62</v>
+        <v>6.18</v>
       </c>
       <c r="J8">
-        <v>6.04</v>
+        <v>7.37</v>
       </c>
       <c r="K8">
-        <v>7.249999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L8">
-        <v>6.77</v>
+        <v>5.7</v>
       </c>
       <c r="M8">
-        <v>5.21</v>
+        <v>4.92</v>
       </c>
       <c r="N8">
-        <v>64.11</v>
+        <v>67.53</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1904,219 +1904,219 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5.96</v>
+        <v>5.86</v>
       </c>
       <c r="C9">
-        <v>9.07</v>
+        <v>7.08</v>
       </c>
       <c r="D9">
-        <v>8.459999999999999</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="E9">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="F9">
-        <v>11.8</v>
+        <v>10.34</v>
       </c>
       <c r="G9">
-        <v>7.24</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="H9">
-        <v>8.390000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="I9">
-        <v>11.55</v>
+        <v>11.57</v>
       </c>
       <c r="J9">
-        <v>7.07</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="K9">
-        <v>7.13</v>
+        <v>8.52</v>
       </c>
       <c r="L9">
-        <v>7.17</v>
+        <v>6.67</v>
       </c>
       <c r="M9">
-        <v>5.66</v>
+        <v>4.98</v>
       </c>
       <c r="N9">
-        <v>61.42</v>
+        <v>61.06</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>3.34</v>
+        <v>4.98</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>7.04</v>
       </c>
       <c r="D10">
-        <v>7.140000000000001</v>
+        <v>6.31</v>
       </c>
       <c r="E10">
-        <v>10.1</v>
+        <v>9.93</v>
       </c>
       <c r="F10">
-        <v>7.649999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="G10">
-        <v>7.08</v>
+        <v>6.58</v>
       </c>
       <c r="H10">
-        <v>11.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I10">
-        <v>9.5</v>
+        <v>13.3</v>
       </c>
       <c r="J10">
-        <v>7.140000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K10">
-        <v>10.66</v>
+        <v>8.48</v>
       </c>
       <c r="L10">
-        <v>9.710000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="M10">
-        <v>9.610000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="N10">
-        <v>53.38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="C11">
-        <v>2.99</v>
+        <v>3.35</v>
       </c>
       <c r="D11">
-        <v>4.58</v>
+        <v>3.86</v>
       </c>
       <c r="E11">
-        <v>6.12</v>
+        <v>4.63</v>
       </c>
       <c r="F11">
-        <v>4.69</v>
+        <v>8.94</v>
       </c>
       <c r="G11">
-        <v>7.13</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="H11">
-        <v>11.55</v>
+        <v>4.64</v>
       </c>
       <c r="I11">
-        <v>8.25</v>
+        <v>10.35</v>
       </c>
       <c r="J11">
-        <v>9.98</v>
+        <v>14.1</v>
       </c>
       <c r="K11">
-        <v>13.18</v>
+        <v>9.77</v>
       </c>
       <c r="L11">
-        <v>13.14</v>
+        <v>13.45</v>
       </c>
       <c r="M11">
-        <v>16.97</v>
+        <v>18.19</v>
       </c>
       <c r="N11">
-        <v>38.48</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="C12">
-        <v>2.09</v>
+        <v>1.18</v>
       </c>
       <c r="D12">
-        <v>3.18</v>
+        <v>1.52</v>
       </c>
       <c r="E12">
-        <v>4.2</v>
+        <v>3.37</v>
       </c>
       <c r="F12">
-        <v>4.02</v>
+        <v>5.01</v>
       </c>
       <c r="G12">
-        <v>7.37</v>
+        <v>3.9</v>
       </c>
       <c r="H12">
-        <v>9.390000000000001</v>
+        <v>6.31</v>
       </c>
       <c r="I12">
-        <v>7.21</v>
+        <v>11.52</v>
       </c>
       <c r="J12">
-        <v>11.86</v>
+        <v>10.75</v>
       </c>
       <c r="K12">
-        <v>15.23</v>
+        <v>14.97</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>21.78</v>
       </c>
       <c r="M12">
-        <v>19.92</v>
+        <v>19.22</v>
       </c>
       <c r="N12">
-        <v>30.78</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="C13">
-        <v>0.83</v>
+        <v>1.88</v>
       </c>
       <c r="D13">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="E13">
-        <v>2.56</v>
+        <v>3.56</v>
       </c>
       <c r="F13">
-        <v>3.26</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="G13">
-        <v>6.11</v>
+        <v>4.46</v>
       </c>
       <c r="H13">
-        <v>6.710000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="I13">
-        <v>7.59</v>
+        <v>12.26</v>
       </c>
       <c r="J13">
-        <v>13.4</v>
+        <v>11.94</v>
       </c>
       <c r="K13">
-        <v>15.01</v>
+        <v>11.55</v>
       </c>
       <c r="L13">
-        <v>20.83</v>
+        <v>17.98</v>
       </c>
       <c r="M13">
-        <v>21.67</v>
+        <v>22.92</v>
       </c>
       <c r="N13">
-        <v>21.5</v>
+        <v>23.35</v>
       </c>
     </row>
   </sheetData>
@@ -2134,16 +2134,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2154,13 +2154,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2171,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2185,16 +2185,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2205,13 +2205,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2219,16 +2219,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2236,16 +2236,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2253,16 +2253,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2270,16 +2270,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2287,16 +2287,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2307,13 +2307,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2321,13 +2321,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -2338,16 +2338,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2357,39 +2357,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2414,11 +2417,14 @@
       <c r="H2">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2443,40 +2449,46 @@
       <c r="H3">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="E4">
+        <v>-16</v>
+      </c>
+      <c r="F4">
+        <v>-9</v>
+      </c>
+      <c r="G4">
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2501,156 +2513,174 @@
       <c r="H5">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
+        <v>-3</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-7</v>
-      </c>
       <c r="E7">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>-3</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-13</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-9</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-11</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>-3</v>
       </c>
-      <c r="C8">
-        <v>-8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-3</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-11</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>-12</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2675,66 +2705,75 @@
       <c r="H11">
         <v>-17</v>
       </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12">
+        <v>-16</v>
+      </c>
+      <c r="F12">
+        <v>-21</v>
+      </c>
+      <c r="G12">
+        <v>-23</v>
+      </c>
+      <c r="H12">
+        <v>-31</v>
+      </c>
+      <c r="I12">
+        <v>-28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-8</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-4</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-7</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-10</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-16</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-23</v>
       </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>-9</v>
-      </c>
-      <c r="E13">
-        <v>-16</v>
-      </c>
-      <c r="F13">
-        <v>-21</v>
-      </c>
-      <c r="G13">
-        <v>-23</v>
-      </c>
-      <c r="H13">
-        <v>-31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
+      <c r="I13">
+        <v>-29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3085,32 +3124,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="69">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,31 +58,34 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,33 +151,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -630,34 +639,34 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -665,40 +674,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -706,40 +715,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -750,22 +759,22 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -774,13 +783,13 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -788,19 +797,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -815,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -829,37 +838,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -870,40 +879,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -911,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -929,22 +938,22 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -952,40 +961,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -993,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1008,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1020,10 +1029,10 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1034,40 +1043,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1075,37 +1084,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1126,13 +1135,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1143,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1171,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.25</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1182,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1196,13 +1205,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1210,13 +1219,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1238,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1252,13 +1261,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1266,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4.833333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.333333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1297,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5.916666666666667</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1318,16 +1327,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1338,13 +1347,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6.083333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D2">
-        <v>1.083333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1355,13 +1364,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-1.416666666666667</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1369,13 +1378,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D4">
-        <v>1.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1386,16 +1395,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.666666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1403,16 +1412,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.75</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1420,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D7">
-        <v>-1.833333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1437,16 +1446,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D8">
-        <v>1.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1454,16 +1463,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D9">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1471,16 +1480,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3.666666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.3333333333333335</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1488,16 +1497,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1505,16 +1514,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1525,13 +1534,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2.416666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.5833333333333335</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1549,46 +1558,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1596,175 +1605,175 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>44.52</v>
+        <v>39.84</v>
       </c>
       <c r="C2">
-        <v>23.79</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>13.16</v>
+        <v>15.76</v>
       </c>
       <c r="E2">
-        <v>6.25</v>
+        <v>9.25</v>
       </c>
       <c r="F2">
-        <v>6.18</v>
+        <v>2.72</v>
       </c>
       <c r="G2">
-        <v>2.66</v>
+        <v>3.51</v>
       </c>
       <c r="H2">
-        <v>0.9199999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="I2">
-        <v>1.33</v>
+        <v>0.98</v>
       </c>
       <c r="J2">
-        <v>0.7100000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="K2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L2">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="N2">
-        <v>97.48</v>
+        <v>97.91</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>8.32</v>
+        <v>8.19</v>
       </c>
       <c r="C3">
-        <v>9.9</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D3">
+        <v>10.54</v>
+      </c>
+      <c r="E3">
+        <v>13.51</v>
+      </c>
+      <c r="F3">
+        <v>6.36</v>
+      </c>
+      <c r="G3">
+        <v>4.72</v>
+      </c>
+      <c r="H3">
         <v>12.18</v>
       </c>
-      <c r="E3">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="F3">
-        <v>7.649999999999999</v>
-      </c>
-      <c r="G3">
-        <v>13.64</v>
-      </c>
-      <c r="H3">
-        <v>9.67</v>
-      </c>
       <c r="I3">
-        <v>4.98</v>
+        <v>12.06</v>
       </c>
       <c r="J3">
-        <v>7.8</v>
+        <v>4.29</v>
       </c>
       <c r="K3">
-        <v>7.48</v>
+        <v>5.58</v>
       </c>
       <c r="L3">
-        <v>4.38</v>
+        <v>7.61</v>
       </c>
       <c r="M3">
-        <v>4.109999999999999</v>
+        <v>5.83</v>
       </c>
       <c r="N3">
-        <v>71.25</v>
+        <v>64.63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>7.41</v>
+        <v>7.71</v>
       </c>
       <c r="C4">
-        <v>11.07</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D4">
-        <v>12.27</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="E4">
-        <v>8.369999999999999</v>
+        <v>12.63</v>
       </c>
       <c r="F4">
-        <v>9.91</v>
+        <v>12.55</v>
       </c>
       <c r="G4">
-        <v>13.58</v>
+        <v>4.77</v>
       </c>
       <c r="H4">
-        <v>7.27</v>
+        <v>7.26</v>
       </c>
       <c r="I4">
-        <v>5.25</v>
+        <v>11.91</v>
       </c>
       <c r="J4">
-        <v>8.74</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K4">
-        <v>6.73</v>
+        <v>4.26</v>
       </c>
       <c r="L4">
-        <v>4.82</v>
+        <v>6.54</v>
       </c>
       <c r="M4">
-        <v>4.58</v>
+        <v>6.31</v>
       </c>
       <c r="N4">
-        <v>69.88</v>
+        <v>62.26</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>7.31</v>
+        <v>7.69</v>
       </c>
       <c r="C5">
-        <v>11.36</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D5">
-        <v>11.78</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E5">
-        <v>7.580000000000001</v>
+        <v>14.15</v>
       </c>
       <c r="F5">
-        <v>11.6</v>
+        <v>9.41</v>
       </c>
       <c r="G5">
-        <v>12.67</v>
+        <v>4.18</v>
       </c>
       <c r="H5">
-        <v>5.42</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="I5">
-        <v>5.87</v>
+        <v>13.09</v>
       </c>
       <c r="J5">
-        <v>9.34</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="K5">
-        <v>6.48</v>
+        <v>4.79</v>
       </c>
       <c r="L5">
-        <v>4.98</v>
+        <v>6.94</v>
       </c>
       <c r="M5">
-        <v>5.609999999999999</v>
+        <v>5.24</v>
       </c>
       <c r="N5">
-        <v>67.72</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1772,175 +1781,175 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6.78</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="C6">
-        <v>7.39</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="D6">
-        <v>9.76</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="E6">
-        <v>11.54</v>
+        <v>10.2</v>
       </c>
       <c r="F6">
-        <v>7.28</v>
+        <v>14.32</v>
       </c>
       <c r="G6">
-        <v>9.24</v>
+        <v>6.84</v>
       </c>
       <c r="H6">
-        <v>13.39</v>
+        <v>5.18</v>
       </c>
       <c r="I6">
-        <v>7.94</v>
+        <v>11.83</v>
       </c>
       <c r="J6">
-        <v>6.660000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="K6">
-        <v>9.030000000000001</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="L6">
-        <v>5.93</v>
+        <v>6.31</v>
       </c>
       <c r="M6">
-        <v>5.06</v>
+        <v>5.52</v>
       </c>
       <c r="N6">
-        <v>65.38</v>
+        <v>60.71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>6.370000000000001</v>
+        <v>6.38</v>
       </c>
       <c r="C7">
-        <v>7.449999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D7">
-        <v>8.49</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="E7">
-        <v>12.53</v>
+        <v>8.06</v>
       </c>
       <c r="F7">
-        <v>8.630000000000001</v>
+        <v>14.38</v>
       </c>
       <c r="G7">
-        <v>7.779999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H7">
-        <v>13.2</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I7">
-        <v>9.449999999999999</v>
+        <v>9.91</v>
       </c>
       <c r="J7">
-        <v>6.859999999999999</v>
+        <v>11.18</v>
       </c>
       <c r="K7">
-        <v>8.390000000000001</v>
+        <v>6.31</v>
       </c>
       <c r="L7">
-        <v>6.03</v>
+        <v>6.49</v>
       </c>
       <c r="M7">
-        <v>4.82</v>
+        <v>6.74</v>
       </c>
       <c r="N7">
-        <v>64.45</v>
+        <v>59.37</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>6.17</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="C8">
-        <v>8.51</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="D8">
-        <v>10.77</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E8">
-        <v>11.05</v>
+        <v>6.35</v>
       </c>
       <c r="F8">
-        <v>7.04</v>
+        <v>12.79</v>
       </c>
       <c r="G8">
-        <v>11.62</v>
+        <v>12.34</v>
       </c>
       <c r="H8">
-        <v>12.37</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="I8">
-        <v>6.18</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="J8">
-        <v>7.37</v>
+        <v>12.19</v>
       </c>
       <c r="K8">
-        <v>8.300000000000001</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="L8">
-        <v>5.7</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="M8">
-        <v>4.92</v>
+        <v>6.73</v>
       </c>
       <c r="N8">
-        <v>67.53</v>
+        <v>59.34999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>5.86</v>
+        <v>6.03</v>
       </c>
       <c r="C9">
-        <v>7.08</v>
+        <v>7.1</v>
       </c>
       <c r="D9">
-        <v>7.670000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="E9">
-        <v>11.3</v>
+        <v>5.91</v>
       </c>
       <c r="F9">
-        <v>10.34</v>
+        <v>7.53</v>
       </c>
       <c r="G9">
-        <v>6.510000000000001</v>
+        <v>15.21</v>
       </c>
       <c r="H9">
-        <v>12.3</v>
+        <v>10.17</v>
       </c>
       <c r="I9">
-        <v>11.57</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="J9">
-        <v>7.199999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="K9">
-        <v>8.52</v>
+        <v>10.06</v>
       </c>
       <c r="L9">
-        <v>6.67</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="M9">
-        <v>4.98</v>
+        <v>6.17</v>
       </c>
       <c r="N9">
-        <v>61.06</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1948,43 +1957,43 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.98</v>
+        <v>5.63</v>
       </c>
       <c r="C10">
-        <v>7.04</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="D10">
-        <v>6.31</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E10">
-        <v>9.93</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="F10">
-        <v>11.45</v>
+        <v>10.2</v>
       </c>
       <c r="G10">
+        <v>14.75</v>
+      </c>
+      <c r="H10">
         <v>6.58</v>
       </c>
-      <c r="H10">
-        <v>9.710000000000001</v>
-      </c>
       <c r="I10">
-        <v>13.3</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="J10">
-        <v>8.529999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="K10">
-        <v>8.48</v>
+        <v>9.44</v>
       </c>
       <c r="L10">
-        <v>8.140000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="M10">
-        <v>5.55</v>
+        <v>7.21</v>
       </c>
       <c r="N10">
-        <v>56</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1992,131 +2001,131 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1.36</v>
+        <v>4.02</v>
       </c>
       <c r="C11">
-        <v>3.35</v>
+        <v>5.76</v>
       </c>
       <c r="D11">
-        <v>3.86</v>
+        <v>8.94</v>
       </c>
       <c r="E11">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F11">
+        <v>4.24</v>
+      </c>
+      <c r="G11">
+        <v>7.829999999999999</v>
+      </c>
+      <c r="H11">
+        <v>14.78</v>
+      </c>
+      <c r="I11">
+        <v>10.09</v>
+      </c>
+      <c r="J11">
         <v>4.63</v>
       </c>
-      <c r="F11">
-        <v>8.94</v>
-      </c>
-      <c r="G11">
-        <v>7.359999999999999</v>
-      </c>
-      <c r="H11">
-        <v>4.64</v>
-      </c>
-      <c r="I11">
-        <v>10.35</v>
-      </c>
-      <c r="J11">
-        <v>14.1</v>
-      </c>
       <c r="K11">
-        <v>9.77</v>
+        <v>10.34</v>
       </c>
       <c r="L11">
-        <v>13.45</v>
+        <v>11.06</v>
       </c>
       <c r="M11">
-        <v>18.19</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="N11">
-        <v>34.14</v>
+        <v>54.52</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C12">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="D12">
-        <v>1.52</v>
+        <v>3.56</v>
       </c>
       <c r="E12">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="F12">
-        <v>5.01</v>
+        <v>2.57</v>
       </c>
       <c r="G12">
-        <v>3.9</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="H12">
-        <v>6.31</v>
+        <v>11.88</v>
       </c>
       <c r="I12">
-        <v>11.52</v>
+        <v>5.64</v>
       </c>
       <c r="J12">
-        <v>10.75</v>
+        <v>7.68</v>
       </c>
       <c r="K12">
-        <v>14.97</v>
+        <v>16.33</v>
       </c>
       <c r="L12">
-        <v>21.78</v>
+        <v>16.89</v>
       </c>
       <c r="M12">
-        <v>19.22</v>
+        <v>21.62</v>
       </c>
       <c r="N12">
-        <v>21.76</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="D13">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="E13">
-        <v>3.56</v>
+        <v>2.36</v>
       </c>
       <c r="F13">
-        <v>5.970000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="G13">
-        <v>4.46</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H13">
-        <v>4.8</v>
+        <v>8.75</v>
       </c>
       <c r="I13">
-        <v>12.26</v>
+        <v>5.55</v>
       </c>
       <c r="J13">
-        <v>11.94</v>
+        <v>11.85</v>
       </c>
       <c r="K13">
-        <v>11.55</v>
+        <v>19.06</v>
       </c>
       <c r="L13">
-        <v>17.98</v>
+        <v>18.33</v>
       </c>
       <c r="M13">
-        <v>22.92</v>
+        <v>19.25</v>
       </c>
       <c r="N13">
-        <v>23.35</v>
+        <v>25.96</v>
       </c>
     </row>
   </sheetData>
@@ -2134,16 +2143,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2154,13 +2163,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2171,13 +2180,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2188,13 +2197,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2208,10 +2217,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2219,16 +2228,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2236,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2245,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2253,16 +2262,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2270,16 +2279,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2287,16 +2296,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2304,16 +2313,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2321,16 +2330,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2341,13 +2350,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2357,42 +2366,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2420,11 +2432,14 @@
       <c r="I2">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2452,11 +2467,14 @@
       <c r="I3">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2484,11 +2502,14 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2516,235 +2537,259 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-11</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>-3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-6</v>
+      </c>
+      <c r="C9">
+        <v>-13</v>
+      </c>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9">
+        <v>-9</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>-12</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10">
+        <v>-2</v>
+      </c>
+      <c r="J10">
+        <v>-4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-9</v>
+      </c>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11">
+        <v>-21</v>
+      </c>
+      <c r="G11">
+        <v>-23</v>
+      </c>
+      <c r="H11">
+        <v>-31</v>
+      </c>
+      <c r="I11">
+        <v>-28</v>
+      </c>
+      <c r="J11">
+        <v>-20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-4</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <v>-11</v>
+      </c>
+      <c r="H12">
+        <v>-17</v>
+      </c>
+      <c r="I12">
+        <v>-21</v>
+      </c>
+      <c r="J12">
+        <v>-21</v>
+      </c>
+      <c r="K12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-3</v>
-      </c>
-      <c r="C7">
-        <v>-8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>-3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-13</v>
-      </c>
-      <c r="D8">
-        <v>-10</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>-12</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-11</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>-3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>-11</v>
-      </c>
-      <c r="H11">
-        <v>-17</v>
-      </c>
-      <c r="I11">
-        <v>-21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>-9</v>
-      </c>
-      <c r="E12">
-        <v>-16</v>
-      </c>
-      <c r="F12">
-        <v>-21</v>
-      </c>
-      <c r="G12">
-        <v>-23</v>
-      </c>
-      <c r="H12">
-        <v>-31</v>
-      </c>
-      <c r="I12">
-        <v>-28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2772,8 +2817,11 @@
       <c r="I13">
         <v>-29</v>
       </c>
-      <c r="J13" t="s">
-        <v>48</v>
+      <c r="J13">
+        <v>-30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2831,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2791,25 +2839,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2843,25 +2891,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2872,22 +2920,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2895,25 +2943,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2921,25 +2969,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>-23</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2947,25 +2995,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2976,22 +3024,22 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2999,25 +3047,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3025,25 +3073,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3051,25 +3099,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>-12</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
+      <c r="H11" t="s">
         <v>1</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3080,48 +3128,22 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
       <c r="H12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="70">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,34 +58,34 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -151,36 +151,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -680,34 +683,34 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -727,19 +730,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -748,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -762,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -777,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -789,7 +792,7 @@
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -803,34 +806,34 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -838,40 +841,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -882,16 +885,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -900,16 +903,16 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -920,40 +923,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -973,19 +976,19 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -994,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1008,34 +1011,34 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1046,37 +1049,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1090,13 +1093,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -1105,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -1152,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1163,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.583333333333333</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1177,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3.833333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1191,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1208,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1236,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1247,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4.666666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1261,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1275,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5.166666666666667</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.583333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1347,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6.916666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D2">
-        <v>0.916666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1361,16 +1364,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D3">
-        <v>-1.833333333333333</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1378,16 +1381,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>1.083333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1395,16 +1398,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.916666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D5">
-        <v>-1.083333333333333</v>
+        <v>-1.75</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1412,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D6">
-        <v>-1.166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1432,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1449,13 +1452,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1.416666666666667</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1463,16 +1466,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.75</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1480,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.08333333333333348</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1500,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D11">
-        <v>-0.3333333333333335</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1514,16 +1517,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>3.5</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1531,16 +1534,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D13">
-        <v>-0.4166666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1605,175 +1608,175 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>39.84</v>
+        <v>25.49</v>
       </c>
       <c r="C2">
-        <v>23.2</v>
+        <v>21.87</v>
       </c>
       <c r="D2">
-        <v>15.76</v>
+        <v>10.53</v>
       </c>
       <c r="E2">
-        <v>9.25</v>
+        <v>15.05</v>
       </c>
       <c r="F2">
-        <v>2.72</v>
+        <v>12.6</v>
       </c>
       <c r="G2">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="H2">
-        <v>3.63</v>
+        <v>1.51</v>
       </c>
       <c r="I2">
-        <v>0.98</v>
+        <v>3.86</v>
       </c>
       <c r="J2">
+        <v>3.5</v>
+      </c>
+      <c r="K2">
+        <v>1.19</v>
+      </c>
+      <c r="L2">
         <v>0.51</v>
       </c>
-      <c r="K2">
-        <v>0.4</v>
-      </c>
-      <c r="L2">
-        <v>0.18</v>
-      </c>
       <c r="M2">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="N2">
-        <v>97.91</v>
+        <v>90.50999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8.19</v>
+        <v>10.54</v>
       </c>
       <c r="C3">
-        <v>9.130000000000001</v>
+        <v>11.83</v>
       </c>
       <c r="D3">
-        <v>10.54</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E3">
-        <v>13.51</v>
+        <v>5.1</v>
       </c>
       <c r="F3">
-        <v>6.36</v>
+        <v>14.56</v>
       </c>
       <c r="G3">
-        <v>4.72</v>
+        <v>14.21</v>
       </c>
       <c r="H3">
-        <v>12.18</v>
+        <v>4.15</v>
       </c>
       <c r="I3">
-        <v>12.06</v>
+        <v>2.55</v>
       </c>
       <c r="J3">
-        <v>4.29</v>
+        <v>8.73</v>
       </c>
       <c r="K3">
-        <v>5.58</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="L3">
-        <v>7.61</v>
+        <v>5.72</v>
       </c>
       <c r="M3">
-        <v>5.83</v>
+        <v>5.01</v>
       </c>
       <c r="N3">
-        <v>64.63</v>
+        <v>68.60000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>7.71</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C4">
-        <v>8.890000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="D4">
-        <v>8.450000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="E4">
-        <v>12.63</v>
+        <v>8.27</v>
       </c>
       <c r="F4">
-        <v>12.55</v>
+        <v>16.24</v>
       </c>
       <c r="G4">
-        <v>4.77</v>
+        <v>10.65</v>
       </c>
       <c r="H4">
-        <v>7.26</v>
+        <v>2.13</v>
       </c>
       <c r="I4">
-        <v>11.91</v>
+        <v>4.07</v>
       </c>
       <c r="J4">
-        <v>8.720000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="K4">
-        <v>4.26</v>
+        <v>9.91</v>
       </c>
       <c r="L4">
-        <v>6.54</v>
+        <v>5.12</v>
       </c>
       <c r="M4">
-        <v>6.31</v>
+        <v>5.94</v>
       </c>
       <c r="N4">
-        <v>62.26</v>
+        <v>64.61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>7.69</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C5">
-        <v>9.460000000000001</v>
+        <v>10.81</v>
       </c>
       <c r="D5">
-        <v>9.109999999999999</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="E5">
-        <v>14.15</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="F5">
-        <v>9.41</v>
+        <v>10.19</v>
       </c>
       <c r="G5">
-        <v>4.18</v>
+        <v>16.67</v>
       </c>
       <c r="H5">
-        <v>9.520000000000001</v>
+        <v>7.32</v>
       </c>
       <c r="I5">
-        <v>13.09</v>
+        <v>2.23</v>
       </c>
       <c r="J5">
-        <v>6.419999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="K5">
-        <v>4.79</v>
+        <v>10.89</v>
       </c>
       <c r="L5">
-        <v>6.94</v>
+        <v>6.48</v>
       </c>
       <c r="M5">
-        <v>5.24</v>
+        <v>6.1</v>
       </c>
       <c r="N5">
-        <v>63.52</v>
+        <v>67.87</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1781,175 +1784,175 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.449999999999999</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="C6">
-        <v>9.229999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="D6">
-        <v>7.489999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="E6">
-        <v>10.2</v>
+        <v>4.06</v>
       </c>
       <c r="F6">
-        <v>14.32</v>
+        <v>6.88</v>
       </c>
       <c r="G6">
-        <v>6.84</v>
+        <v>16.33</v>
       </c>
       <c r="H6">
-        <v>5.18</v>
+        <v>12.08</v>
       </c>
       <c r="I6">
-        <v>11.83</v>
+        <v>3.05</v>
       </c>
       <c r="J6">
-        <v>10.24</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="K6">
-        <v>5.390000000000001</v>
+        <v>10.34</v>
       </c>
       <c r="L6">
-        <v>6.31</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="M6">
-        <v>5.52</v>
+        <v>6.9</v>
       </c>
       <c r="N6">
-        <v>60.71</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>6.38</v>
+        <v>7.61</v>
       </c>
       <c r="C7">
-        <v>8.609999999999999</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="D7">
-        <v>7.489999999999999</v>
+        <v>11.71</v>
       </c>
       <c r="E7">
-        <v>8.06</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F7">
-        <v>14.38</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G7">
-        <v>9.6</v>
+        <v>12.97</v>
       </c>
       <c r="H7">
-        <v>4.850000000000001</v>
+        <v>15.81</v>
       </c>
       <c r="I7">
-        <v>9.91</v>
+        <v>5.16</v>
       </c>
       <c r="J7">
-        <v>11.18</v>
+        <v>3.66</v>
       </c>
       <c r="K7">
-        <v>6.31</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="L7">
-        <v>6.49</v>
+        <v>8.83</v>
       </c>
       <c r="M7">
-        <v>6.74</v>
+        <v>6.68</v>
       </c>
       <c r="N7">
-        <v>59.37</v>
+        <v>66.61999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>6.069999999999999</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="C8">
-        <v>8.540000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="D8">
-        <v>8.039999999999999</v>
+        <v>12.22</v>
       </c>
       <c r="E8">
-        <v>6.35</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="F8">
-        <v>12.79</v>
+        <v>2.99</v>
       </c>
       <c r="G8">
-        <v>12.34</v>
+        <v>8.84</v>
       </c>
       <c r="H8">
-        <v>5.220000000000001</v>
+        <v>16.44</v>
       </c>
       <c r="I8">
-        <v>7.430000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="J8">
-        <v>12.19</v>
+        <v>3.76</v>
       </c>
       <c r="K8">
-        <v>8.039999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="L8">
-        <v>6.260000000000001</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="M8">
-        <v>6.73</v>
+        <v>6.43</v>
       </c>
       <c r="N8">
-        <v>59.34999999999999</v>
+        <v>64.13</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>6.03</v>
+        <v>6.73</v>
       </c>
       <c r="C9">
-        <v>7.1</v>
+        <v>4.81</v>
       </c>
       <c r="D9">
-        <v>9.75</v>
+        <v>7.7</v>
       </c>
       <c r="E9">
-        <v>5.91</v>
+        <v>13.48</v>
       </c>
       <c r="F9">
-        <v>7.53</v>
+        <v>8.27</v>
       </c>
       <c r="G9">
-        <v>15.21</v>
+        <v>2.15</v>
       </c>
       <c r="H9">
-        <v>10.17</v>
+        <v>7.59</v>
       </c>
       <c r="I9">
-        <v>5.050000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="J9">
-        <v>10.36</v>
+        <v>10.93</v>
       </c>
       <c r="K9">
-        <v>10.06</v>
+        <v>5.07</v>
       </c>
       <c r="L9">
-        <v>6.660000000000001</v>
+        <v>9.16</v>
       </c>
       <c r="M9">
-        <v>6.17</v>
+        <v>8.41</v>
       </c>
       <c r="N9">
-        <v>61.7</v>
+        <v>50.72999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1957,175 +1960,175 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.63</v>
+        <v>6.61</v>
       </c>
       <c r="C10">
-        <v>7.140000000000001</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="D10">
-        <v>8.609999999999999</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="E10">
-        <v>5.319999999999999</v>
+        <v>12.17</v>
       </c>
       <c r="F10">
-        <v>10.2</v>
+        <v>5.3</v>
       </c>
       <c r="G10">
-        <v>14.75</v>
+        <v>3.02</v>
       </c>
       <c r="H10">
-        <v>6.58</v>
+        <v>11.47</v>
       </c>
       <c r="I10">
-        <v>6.460000000000001</v>
+        <v>16.75</v>
       </c>
       <c r="J10">
-        <v>11.93</v>
+        <v>7.02</v>
       </c>
       <c r="K10">
-        <v>9.44</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="L10">
-        <v>6.73</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="M10">
-        <v>7.21</v>
+        <v>8.5</v>
       </c>
       <c r="N10">
-        <v>58.23</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>4.02</v>
+        <v>6.550000000000001</v>
       </c>
       <c r="C11">
-        <v>5.76</v>
+        <v>6.03</v>
       </c>
       <c r="D11">
-        <v>8.94</v>
+        <v>11.02</v>
       </c>
       <c r="E11">
-        <v>8.949999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="F11">
-        <v>4.24</v>
+        <v>3.56</v>
       </c>
       <c r="G11">
-        <v>7.829999999999999</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="H11">
-        <v>14.78</v>
+        <v>15.67</v>
       </c>
       <c r="I11">
-        <v>10.09</v>
+        <v>13.09</v>
       </c>
       <c r="J11">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="K11">
-        <v>10.34</v>
+        <v>6.92</v>
       </c>
       <c r="L11">
-        <v>11.06</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="M11">
-        <v>9.359999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="N11">
-        <v>54.52</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.6899999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="C12">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="D12">
-        <v>3.56</v>
+        <v>2.16</v>
       </c>
       <c r="E12">
-        <v>3.31</v>
+        <v>6.68</v>
       </c>
       <c r="F12">
-        <v>2.57</v>
+        <v>7.64</v>
       </c>
       <c r="G12">
-        <v>8.200000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="H12">
-        <v>11.88</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>5.64</v>
+        <v>14.87</v>
       </c>
       <c r="J12">
-        <v>7.68</v>
+        <v>18.19</v>
       </c>
       <c r="K12">
-        <v>16.33</v>
+        <v>10.15</v>
       </c>
       <c r="L12">
-        <v>16.89</v>
+        <v>15.74</v>
       </c>
       <c r="M12">
-        <v>21.62</v>
+        <v>13.64</v>
       </c>
       <c r="N12">
-        <v>31.84</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="D13">
-        <v>2.26</v>
+        <v>1.42</v>
       </c>
       <c r="E13">
-        <v>2.36</v>
+        <v>5.16</v>
       </c>
       <c r="F13">
-        <v>2.93</v>
+        <v>7.37</v>
       </c>
       <c r="G13">
-        <v>8.050000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="H13">
-        <v>8.75</v>
+        <v>1.83</v>
       </c>
       <c r="I13">
-        <v>5.55</v>
+        <v>9.17</v>
       </c>
       <c r="J13">
-        <v>11.85</v>
+        <v>17.5</v>
       </c>
       <c r="K13">
-        <v>19.06</v>
+        <v>13.29</v>
       </c>
       <c r="L13">
-        <v>18.33</v>
+        <v>14.12</v>
       </c>
       <c r="M13">
-        <v>19.25</v>
+        <v>24.16</v>
       </c>
       <c r="N13">
-        <v>25.96</v>
+        <v>21.76000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -2180,10 +2183,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -2197,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2211,13 +2214,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -2228,16 +2231,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2248,13 +2251,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2262,16 +2265,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2279,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2296,16 +2299,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2316,13 +2319,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2333,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2353,7 +2356,7 @@
         <v>-30</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>52</v>
@@ -2366,13 +2369,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2401,10 +2404,13 @@
         <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2435,11 +2441,14 @@
       <c r="J2">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2470,11 +2479,14 @@
       <c r="J3">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2505,81 +2517,90 @@
       <c r="J4">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>-8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-2</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>-11</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>-3</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2610,116 +2631,128 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-11</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9">
         <v>-8</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-3</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>-4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-6</v>
-      </c>
-      <c r="C9">
-        <v>-13</v>
-      </c>
-      <c r="D9">
+      <c r="H9">
         <v>-10</v>
       </c>
-      <c r="E9">
-        <v>-9</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
       <c r="I9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J9">
         <v>-4</v>
       </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E10">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F10">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>-4</v>
       </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2750,11 +2783,14 @@
       <c r="J11">
         <v>-20</v>
       </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2785,11 +2821,14 @@
       <c r="J12">
         <v>-21</v>
       </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2859,10 @@
       <c r="J13">
         <v>-30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>-30</v>
+      </c>
+      <c r="L13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2831,7 +2873,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2839,25 +2881,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2865,25 +2907,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2891,25 +2933,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2917,25 +2959,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>-6</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>-30</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2943,25 +2985,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>-20</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2969,25 +3011,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2995,25 +3037,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3021,25 +3063,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3047,25 +3089,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>7</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3073,25 +3115,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3099,22 +3141,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F11">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -3128,22 +3170,48 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-2</v>
+      </c>
+      <c r="F13">
+        <v>-12</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
+      <c r="H13" t="s">
         <v>1</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="72">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,34 +58,37 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>11-0-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -157,27 +160,27 @@
     <t>↓4</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,13 +645,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -660,16 +666,16 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -677,40 +683,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -718,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -727,13 +733,13 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -742,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -759,40 +765,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -800,22 +806,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -827,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -844,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -856,22 +862,22 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -882,37 +888,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -926,34 +932,34 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -964,37 +970,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>16</v>
@@ -1005,40 +1011,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1049,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1064,22 +1070,22 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1087,28 +1093,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -1117,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1138,13 +1144,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1155,10 +1161,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.833333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1183,10 +1189,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1197,10 +1203,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1222,13 +1228,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>5.416666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1284,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1298,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1330,16 +1336,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>7.166666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D2">
-        <v>1.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1364,16 +1370,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-1.416666666666667</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1381,16 +1387,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1398,16 +1404,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-1.75</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1415,16 +1421,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="D6">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1432,16 +1438,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D7">
-        <v>1.166666666666667</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1449,16 +1455,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1466,16 +1472,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>4.916666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333304</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1483,16 +1489,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>-1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1503,13 +1509,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1517,16 +1523,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.5</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1534,16 +1540,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D13">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1561,46 +1567,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1608,307 +1614,307 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>25.49</v>
+        <v>12.34</v>
       </c>
       <c r="C2">
-        <v>21.87</v>
+        <v>26.19</v>
       </c>
       <c r="D2">
-        <v>10.53</v>
+        <v>15.44</v>
       </c>
       <c r="E2">
-        <v>15.05</v>
+        <v>2.64</v>
       </c>
       <c r="F2">
-        <v>12.6</v>
+        <v>5.67</v>
       </c>
       <c r="G2">
-        <v>3.46</v>
+        <v>16.52</v>
       </c>
       <c r="H2">
-        <v>1.51</v>
+        <v>11.4</v>
       </c>
       <c r="I2">
-        <v>3.86</v>
+        <v>1.98</v>
       </c>
       <c r="J2">
-        <v>3.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K2">
-        <v>1.19</v>
+        <v>2.59</v>
       </c>
       <c r="L2">
-        <v>0.51</v>
+        <v>2.94</v>
       </c>
       <c r="M2">
-        <v>0.43</v>
+        <v>1.6</v>
       </c>
       <c r="N2">
-        <v>90.50999999999999</v>
+        <v>90.20000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>10.54</v>
+        <v>11.53</v>
       </c>
       <c r="C3">
-        <v>11.83</v>
+        <v>10.17</v>
       </c>
       <c r="D3">
-        <v>8.210000000000001</v>
+        <v>14.73</v>
       </c>
       <c r="E3">
-        <v>5.1</v>
+        <v>7.24</v>
       </c>
       <c r="F3">
-        <v>14.56</v>
+        <v>1.09</v>
       </c>
       <c r="G3">
-        <v>14.21</v>
+        <v>3.35</v>
       </c>
       <c r="H3">
-        <v>4.15</v>
+        <v>15.09</v>
       </c>
       <c r="I3">
-        <v>2.55</v>
+        <v>15.92</v>
       </c>
       <c r="J3">
-        <v>8.73</v>
+        <v>4.89</v>
       </c>
       <c r="K3">
-        <v>9.390000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="L3">
-        <v>5.72</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="M3">
-        <v>5.01</v>
+        <v>6.9</v>
       </c>
       <c r="N3">
-        <v>68.60000000000001</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.890000000000001</v>
+        <v>10.66</v>
       </c>
       <c r="C4">
-        <v>11.25</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="D4">
-        <v>6.18</v>
+        <v>14.51</v>
       </c>
       <c r="E4">
-        <v>8.27</v>
+        <v>10.62</v>
       </c>
       <c r="F4">
-        <v>16.24</v>
+        <v>2.67</v>
       </c>
       <c r="G4">
-        <v>10.65</v>
+        <v>1.45</v>
       </c>
       <c r="H4">
-        <v>2.13</v>
+        <v>10.17</v>
       </c>
       <c r="I4">
-        <v>4.07</v>
+        <v>17.98</v>
       </c>
       <c r="J4">
-        <v>10.35</v>
+        <v>9.1</v>
       </c>
       <c r="K4">
-        <v>9.91</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>5.12</v>
+        <v>5.69</v>
       </c>
       <c r="M4">
-        <v>5.94</v>
+        <v>7.22</v>
       </c>
       <c r="N4">
-        <v>64.61</v>
+        <v>57.71000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>8.890000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C5">
-        <v>10.81</v>
+        <v>5.36</v>
       </c>
       <c r="D5">
-        <v>9.229999999999999</v>
+        <v>12.88</v>
       </c>
       <c r="E5">
-        <v>4.760000000000001</v>
+        <v>14.26</v>
       </c>
       <c r="F5">
-        <v>10.19</v>
+        <v>4.38</v>
       </c>
       <c r="G5">
-        <v>16.67</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="H5">
-        <v>7.32</v>
+        <v>5.33</v>
       </c>
       <c r="I5">
-        <v>2.23</v>
+        <v>16.56</v>
       </c>
       <c r="J5">
-        <v>6.43</v>
+        <v>13.32</v>
       </c>
       <c r="K5">
-        <v>10.89</v>
+        <v>4.43</v>
       </c>
       <c r="L5">
-        <v>6.48</v>
+        <v>5.17</v>
       </c>
       <c r="M5">
-        <v>6.1</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="N5">
-        <v>67.87</v>
+        <v>52.69</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7.920000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="C6">
-        <v>9.16</v>
+        <v>4.21</v>
       </c>
       <c r="D6">
-        <v>10.24</v>
+        <v>6.92</v>
       </c>
       <c r="E6">
-        <v>4.06</v>
+        <v>15.39</v>
       </c>
       <c r="F6">
-        <v>6.88</v>
+        <v>11.87</v>
       </c>
       <c r="G6">
-        <v>16.33</v>
+        <v>2.77</v>
       </c>
       <c r="H6">
-        <v>12.08</v>
+        <v>1.36</v>
       </c>
       <c r="I6">
-        <v>3.05</v>
+        <v>8.18</v>
       </c>
       <c r="J6">
-        <v>5.319999999999999</v>
+        <v>16.1</v>
       </c>
       <c r="K6">
-        <v>10.34</v>
+        <v>10.23</v>
       </c>
       <c r="L6">
-        <v>7.720000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="M6">
-        <v>6.9</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="N6">
-        <v>66.67</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.61</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C7">
-        <v>8.219999999999999</v>
+        <v>4.54</v>
       </c>
       <c r="D7">
-        <v>11.71</v>
+        <v>10.15</v>
       </c>
       <c r="E7">
-        <v>5.899999999999999</v>
+        <v>14.89</v>
       </c>
       <c r="F7">
-        <v>4.399999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="G7">
-        <v>12.97</v>
+        <v>1.4</v>
       </c>
       <c r="H7">
-        <v>15.81</v>
+        <v>2.77</v>
       </c>
       <c r="I7">
-        <v>5.16</v>
+        <v>12.19</v>
       </c>
       <c r="J7">
-        <v>3.66</v>
+        <v>16.17</v>
       </c>
       <c r="K7">
-        <v>9.049999999999999</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="L7">
-        <v>8.83</v>
+        <v>4.51</v>
       </c>
       <c r="M7">
-        <v>6.68</v>
+        <v>9.58</v>
       </c>
       <c r="N7">
-        <v>66.61999999999999</v>
+        <v>50.55</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>7.149999999999999</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.62</v>
+        <v>10.62</v>
       </c>
       <c r="D8">
-        <v>12.22</v>
+        <v>3.49</v>
       </c>
       <c r="E8">
-        <v>8.870000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="F8">
-        <v>2.99</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>8.84</v>
+        <v>19.7</v>
       </c>
       <c r="H8">
-        <v>16.44</v>
+        <v>8.17</v>
       </c>
       <c r="I8">
-        <v>9.5</v>
+        <v>1.02</v>
       </c>
       <c r="J8">
-        <v>3.76</v>
+        <v>3.57</v>
       </c>
       <c r="K8">
-        <v>7.73</v>
+        <v>10.86</v>
       </c>
       <c r="L8">
-        <v>8.450000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="M8">
-        <v>6.43</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="N8">
-        <v>64.13</v>
+        <v>65.47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1916,131 +1922,131 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>6.73</v>
+        <v>7.68</v>
       </c>
       <c r="C9">
-        <v>4.81</v>
+        <v>6.32</v>
       </c>
       <c r="D9">
-        <v>7.7</v>
+        <v>2.16</v>
       </c>
       <c r="E9">
-        <v>13.48</v>
+        <v>9.27</v>
       </c>
       <c r="F9">
-        <v>8.27</v>
+        <v>17.59</v>
       </c>
       <c r="G9">
-        <v>2.15</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="H9">
-        <v>7.59</v>
+        <v>1.44</v>
       </c>
       <c r="I9">
-        <v>15.7</v>
+        <v>2.28</v>
       </c>
       <c r="J9">
-        <v>10.93</v>
+        <v>10.63</v>
       </c>
       <c r="K9">
-        <v>5.07</v>
+        <v>14.91</v>
       </c>
       <c r="L9">
-        <v>9.16</v>
+        <v>8.82</v>
       </c>
       <c r="M9">
-        <v>8.41</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="N9">
-        <v>50.72999999999999</v>
+        <v>53.98999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>6.61</v>
+        <v>7.51</v>
       </c>
       <c r="C10">
-        <v>4.590000000000001</v>
+        <v>4.62</v>
       </c>
       <c r="D10">
-        <v>9.379999999999999</v>
+        <v>3.66</v>
       </c>
       <c r="E10">
-        <v>12.17</v>
+        <v>13.2</v>
       </c>
       <c r="F10">
-        <v>5.3</v>
+        <v>14.84</v>
       </c>
       <c r="G10">
-        <v>3.02</v>
+        <v>5.58</v>
       </c>
       <c r="H10">
-        <v>11.47</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="I10">
-        <v>16.75</v>
+        <v>4.66</v>
       </c>
       <c r="J10">
-        <v>7.02</v>
+        <v>14.02</v>
       </c>
       <c r="K10">
-        <v>6.069999999999999</v>
+        <v>14.28</v>
       </c>
       <c r="L10">
-        <v>9.120000000000001</v>
+        <v>6.23</v>
       </c>
       <c r="M10">
-        <v>8.5</v>
+        <v>10.58</v>
       </c>
       <c r="N10">
-        <v>52.54</v>
+        <v>50.23</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>6.550000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="C11">
-        <v>6.03</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="D11">
-        <v>11.02</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>10.5</v>
+        <v>5.47</v>
       </c>
       <c r="F11">
-        <v>3.56</v>
+        <v>16.56</v>
       </c>
       <c r="G11">
-        <v>5.220000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="H11">
-        <v>15.67</v>
+        <v>3.66</v>
       </c>
       <c r="I11">
-        <v>13.09</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="J11">
-        <v>4.61</v>
+        <v>6.68</v>
       </c>
       <c r="K11">
-        <v>6.92</v>
+        <v>14.12</v>
       </c>
       <c r="L11">
-        <v>9.030000000000001</v>
+        <v>11.15</v>
       </c>
       <c r="M11">
-        <v>7.8</v>
+        <v>10.53</v>
       </c>
       <c r="N11">
-        <v>58.55</v>
+        <v>56.58999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2048,43 +2054,43 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>1.62</v>
+        <v>4.29</v>
       </c>
       <c r="C12">
-        <v>2.18</v>
+        <v>6.58</v>
       </c>
       <c r="D12">
-        <v>2.16</v>
+        <v>6.67</v>
       </c>
       <c r="E12">
-        <v>6.68</v>
+        <v>1.92</v>
       </c>
       <c r="F12">
-        <v>7.64</v>
+        <v>2.72</v>
       </c>
       <c r="G12">
-        <v>3.13</v>
+        <v>15.43</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>19.16</v>
       </c>
       <c r="I12">
-        <v>14.87</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="J12">
-        <v>18.19</v>
+        <v>2.46</v>
       </c>
       <c r="K12">
-        <v>10.15</v>
+        <v>10.49</v>
       </c>
       <c r="L12">
-        <v>15.74</v>
+        <v>16.78</v>
       </c>
       <c r="M12">
-        <v>13.64</v>
+        <v>7.08</v>
       </c>
       <c r="N12">
-        <v>27.41</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2092,43 +2098,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3.85</v>
       </c>
       <c r="C13">
-        <v>1.63</v>
+        <v>6.87</v>
       </c>
       <c r="D13">
-        <v>1.42</v>
+        <v>7.39</v>
       </c>
       <c r="E13">
-        <v>5.16</v>
+        <v>3.01</v>
       </c>
       <c r="F13">
-        <v>7.37</v>
+        <v>1.03</v>
       </c>
       <c r="G13">
-        <v>3.35</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="H13">
-        <v>1.83</v>
+        <v>20.63</v>
       </c>
       <c r="I13">
-        <v>9.17</v>
+        <v>11.88</v>
       </c>
       <c r="J13">
-        <v>17.5</v>
+        <v>2.37</v>
       </c>
       <c r="K13">
-        <v>13.29</v>
+        <v>6.550000000000001</v>
       </c>
       <c r="L13">
-        <v>14.12</v>
+        <v>16.68</v>
       </c>
       <c r="M13">
-        <v>24.16</v>
+        <v>11.2</v>
       </c>
       <c r="N13">
-        <v>21.76000000000001</v>
+        <v>51.32</v>
       </c>
     </row>
   </sheetData>
@@ -2146,16 +2152,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2166,13 +2172,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2183,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2197,16 +2203,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2214,16 +2220,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2231,16 +2237,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2248,16 +2254,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2265,16 +2271,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2282,16 +2288,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2299,16 +2305,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2319,13 +2325,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2336,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-22</v>
+        <v>-17</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2356,10 +2362,10 @@
         <v>-30</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2369,48 +2375,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2444,11 +2453,14 @@
       <c r="K2">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2482,277 +2494,301 @@
       <c r="K3">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
         <v>-7</v>
       </c>
-      <c r="E4">
-        <v>-16</v>
-      </c>
-      <c r="F4">
-        <v>-9</v>
-      </c>
-      <c r="G4">
-        <v>-3</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
+      <c r="F5">
+        <v>-12</v>
+      </c>
+      <c r="G5">
         <v>-8</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>-3</v>
-      </c>
       <c r="H5">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J5">
         <v>-4</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>-4</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-13</v>
+      </c>
+      <c r="D7">
+        <v>-10</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-4</v>
+      </c>
+      <c r="K7">
+        <v>-6</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>-4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-16</v>
+      </c>
+      <c r="F9">
+        <v>-9</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
+      <c r="L9">
+        <v>-5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-11</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-3</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>-12</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-4</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B10">
         <v>-6</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="E10">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J10">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>-6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2786,11 +2822,14 @@
       <c r="K11">
         <v>-16</v>
       </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <v>-11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2824,11 +2863,14 @@
       <c r="K12">
         <v>-22</v>
       </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2862,8 +2904,11 @@
       <c r="K13">
         <v>-30</v>
       </c>
-      <c r="L13" t="s">
-        <v>52</v>
+      <c r="L13">
+        <v>-30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2918,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2881,25 +2926,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2933,25 +2978,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>-8</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2959,22 +3004,22 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>-6</v>
+        <v>-30</v>
       </c>
       <c r="F4">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -2985,25 +3030,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3011,25 +3056,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>-6</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>-30</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3037,25 +3082,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>-20</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3063,25 +3108,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3089,25 +3134,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3115,22 +3160,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3141,25 +3186,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>-23</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3167,25 +3212,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3193,25 +3238,77 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>-2</v>
-      </c>
-      <c r="F13">
-        <v>-12</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="70">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,37 +58,37 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>11-0-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -154,34 +154,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -215,6 +206,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -645,37 +639,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -686,37 +680,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -727,37 +721,37 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -765,40 +759,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -809,37 +803,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -847,40 +841,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -888,31 +882,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -921,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -932,34 +926,34 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
         <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -976,22 +970,22 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
       <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1014,37 +1008,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1052,40 +1046,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1093,40 +1087,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1189,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.583333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1203,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1214,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1228,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1242,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.583333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,10 +1253,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>6.333333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1284,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>6.416666666666667</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>6.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1315,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7.083333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1356,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>7.583333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D2">
-        <v>1.583333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1373,13 +1367,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.083333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D3">
         <v>-1.916666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1387,16 +1381,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.916666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D4">
-        <v>-2.083333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1404,16 +1398,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.166666666666667</v>
+        <v>-2.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1421,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1441,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>5.666666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-1.333333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1455,13 +1449,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1472,16 +1466,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5.333333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D9">
-        <v>1.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1489,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1506,16 +1500,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4.666666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D11">
-        <v>-0.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1526,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D12">
-        <v>1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1543,10 +1537,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.75</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1611,90 +1605,90 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>12.34</v>
+        <v>16.29</v>
       </c>
       <c r="C2">
-        <v>26.19</v>
+        <v>4.62</v>
       </c>
       <c r="D2">
-        <v>15.44</v>
+        <v>0.53</v>
       </c>
       <c r="E2">
+        <v>8.59</v>
+      </c>
+      <c r="F2">
+        <v>22.88</v>
+      </c>
+      <c r="G2">
+        <v>15.86</v>
+      </c>
+      <c r="H2">
         <v>2.64</v>
       </c>
-      <c r="F2">
-        <v>5.67</v>
-      </c>
-      <c r="G2">
-        <v>16.52</v>
-      </c>
-      <c r="H2">
-        <v>11.4</v>
-      </c>
       <c r="I2">
-        <v>1.98</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="J2">
-        <v>0.6899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="K2">
-        <v>2.59</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L2">
-        <v>2.94</v>
+        <v>13.31</v>
       </c>
       <c r="M2">
-        <v>1.6</v>
+        <v>4.56</v>
       </c>
       <c r="N2">
-        <v>90.20000000000002</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>11.53</v>
+        <v>15.18</v>
       </c>
       <c r="C3">
-        <v>10.17</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D3">
-        <v>14.73</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E3">
-        <v>7.24</v>
+        <v>2.14</v>
       </c>
       <c r="F3">
-        <v>1.09</v>
+        <v>17.15</v>
       </c>
       <c r="G3">
-        <v>3.35</v>
+        <v>22.67</v>
       </c>
       <c r="H3">
-        <v>15.09</v>
+        <v>7.81</v>
       </c>
       <c r="I3">
-        <v>15.92</v>
+        <v>0.42</v>
       </c>
       <c r="J3">
-        <v>4.89</v>
+        <v>0.75</v>
       </c>
       <c r="K3">
-        <v>2.24</v>
+        <v>5.76</v>
       </c>
       <c r="L3">
-        <v>6.850000000000001</v>
+        <v>12.33</v>
       </c>
       <c r="M3">
-        <v>6.9</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="N3">
-        <v>63.2</v>
+        <v>73.85000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1702,439 +1696,439 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10.66</v>
+        <v>13.47</v>
       </c>
       <c r="C4">
-        <v>7.630000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="D4">
-        <v>14.51</v>
+        <v>2.66</v>
       </c>
       <c r="E4">
-        <v>10.62</v>
+        <v>16.1</v>
       </c>
       <c r="F4">
-        <v>2.67</v>
+        <v>21.48</v>
       </c>
       <c r="G4">
-        <v>1.45</v>
+        <v>7.89</v>
       </c>
       <c r="H4">
-        <v>10.17</v>
+        <v>0.36</v>
       </c>
       <c r="I4">
-        <v>17.98</v>
+        <v>0.28</v>
       </c>
       <c r="J4">
-        <v>9.1</v>
+        <v>4.07</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>14.21</v>
       </c>
       <c r="L4">
-        <v>5.69</v>
+        <v>14.33</v>
       </c>
       <c r="M4">
-        <v>7.22</v>
+        <v>3.52</v>
       </c>
       <c r="N4">
-        <v>57.71000000000001</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>9.550000000000001</v>
+        <v>11.82</v>
       </c>
       <c r="C5">
-        <v>5.36</v>
+        <v>10.19</v>
       </c>
       <c r="D5">
-        <v>12.88</v>
+        <v>1.82</v>
       </c>
       <c r="E5">
-        <v>14.26</v>
+        <v>0.38</v>
       </c>
       <c r="F5">
-        <v>4.38</v>
+        <v>7.049999999999999</v>
       </c>
       <c r="G5">
-        <v>0.9299999999999999</v>
+        <v>23.98</v>
       </c>
       <c r="H5">
-        <v>5.33</v>
+        <v>15.98</v>
       </c>
       <c r="I5">
-        <v>16.56</v>
+        <v>2.41</v>
       </c>
       <c r="J5">
-        <v>13.32</v>
+        <v>0.37</v>
       </c>
       <c r="K5">
-        <v>4.43</v>
+        <v>3.91</v>
       </c>
       <c r="L5">
-        <v>5.17</v>
+        <v>12.73</v>
       </c>
       <c r="M5">
-        <v>7.829999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="N5">
-        <v>52.69</v>
+        <v>71.22</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>8.76</v>
+        <v>10.4</v>
       </c>
       <c r="C6">
-        <v>4.21</v>
+        <v>0.98</v>
       </c>
       <c r="D6">
-        <v>6.92</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E6">
-        <v>15.39</v>
+        <v>19.58</v>
       </c>
       <c r="F6">
-        <v>11.87</v>
+        <v>14.86</v>
       </c>
       <c r="G6">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="H6">
-        <v>1.36</v>
+        <v>0.06</v>
       </c>
       <c r="I6">
-        <v>8.18</v>
+        <v>1.21</v>
       </c>
       <c r="J6">
-        <v>16.1</v>
+        <v>9.51</v>
       </c>
       <c r="K6">
-        <v>10.23</v>
+        <v>19.26</v>
       </c>
       <c r="L6">
-        <v>5.07</v>
+        <v>12.53</v>
       </c>
       <c r="M6">
-        <v>9.139999999999999</v>
+        <v>1.78</v>
       </c>
       <c r="N6">
-        <v>51.28</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>8.619999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="C7">
-        <v>4.54</v>
+        <v>11.78</v>
       </c>
       <c r="D7">
-        <v>10.15</v>
+        <v>3.83</v>
       </c>
       <c r="E7">
-        <v>14.89</v>
+        <v>0.29</v>
       </c>
       <c r="F7">
-        <v>8.18</v>
+        <v>2.25</v>
       </c>
       <c r="G7">
-        <v>1.4</v>
+        <v>15.76</v>
       </c>
       <c r="H7">
-        <v>2.77</v>
+        <v>24.31</v>
       </c>
       <c r="I7">
-        <v>12.19</v>
+        <v>7.85</v>
       </c>
       <c r="J7">
-        <v>16.17</v>
+        <v>0.53</v>
       </c>
       <c r="K7">
-        <v>7.000000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="L7">
-        <v>4.51</v>
+        <v>10.34</v>
       </c>
       <c r="M7">
-        <v>9.58</v>
+        <v>12.26</v>
       </c>
       <c r="N7">
-        <v>50.55</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>8.01</v>
       </c>
       <c r="C8">
-        <v>10.62</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>3.49</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="E8">
-        <v>2.09</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>0.37</v>
       </c>
       <c r="G8">
-        <v>19.7</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="H8">
-        <v>8.17</v>
+        <v>22.01</v>
       </c>
       <c r="I8">
-        <v>1.02</v>
+        <v>16.79</v>
       </c>
       <c r="J8">
-        <v>3.57</v>
+        <v>2.37</v>
       </c>
       <c r="K8">
-        <v>10.86</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="L8">
-        <v>10.11</v>
+        <v>7.16</v>
       </c>
       <c r="M8">
-        <v>8.970000000000001</v>
+        <v>12.52</v>
       </c>
       <c r="N8">
-        <v>65.47</v>
+        <v>60.24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7.68</v>
+        <v>5.83</v>
       </c>
       <c r="C9">
-        <v>6.32</v>
+        <v>1.76</v>
       </c>
       <c r="D9">
-        <v>2.16</v>
+        <v>10.8</v>
       </c>
       <c r="E9">
-        <v>9.27</v>
+        <v>16.87</v>
       </c>
       <c r="F9">
-        <v>17.59</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="G9">
-        <v>9.529999999999999</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="H9">
-        <v>1.44</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
-        <v>2.28</v>
+        <v>4.62</v>
       </c>
       <c r="J9">
-        <v>10.63</v>
+        <v>20.26</v>
       </c>
       <c r="K9">
-        <v>14.91</v>
+        <v>23.56</v>
       </c>
       <c r="L9">
-        <v>8.82</v>
+        <v>7.22</v>
       </c>
       <c r="M9">
-        <v>9.370000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="N9">
-        <v>53.98999999999999</v>
+        <v>43.89</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>7.51</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="C10">
-        <v>4.62</v>
+        <v>13.88</v>
       </c>
       <c r="D10">
-        <v>3.66</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E10">
-        <v>13.2</v>
+        <v>1.88</v>
       </c>
       <c r="F10">
-        <v>14.84</v>
+        <v>0.17</v>
       </c>
       <c r="G10">
-        <v>5.58</v>
+        <v>2.15</v>
       </c>
       <c r="H10">
-        <v>0.8200000000000001</v>
+        <v>15.95</v>
       </c>
       <c r="I10">
-        <v>4.66</v>
+        <v>22.61</v>
       </c>
       <c r="J10">
-        <v>14.02</v>
+        <v>8.23</v>
       </c>
       <c r="K10">
-        <v>14.28</v>
+        <v>0.62</v>
       </c>
       <c r="L10">
-        <v>6.23</v>
+        <v>5.1</v>
       </c>
       <c r="M10">
-        <v>10.58</v>
+        <v>15.34</v>
       </c>
       <c r="N10">
-        <v>50.23</v>
+        <v>48.10000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>7.21</v>
+        <v>3.15</v>
       </c>
       <c r="C11">
-        <v>6.890000000000001</v>
+        <v>13.59</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>14.26</v>
       </c>
       <c r="E11">
-        <v>5.47</v>
+        <v>3.82</v>
       </c>
       <c r="F11">
-        <v>16.56</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>14.8</v>
+        <v>0.54</v>
       </c>
       <c r="H11">
-        <v>3.66</v>
+        <v>7.46</v>
       </c>
       <c r="I11">
-        <v>0.9299999999999999</v>
+        <v>22.09</v>
       </c>
       <c r="J11">
-        <v>6.68</v>
+        <v>15.79</v>
       </c>
       <c r="K11">
-        <v>14.12</v>
+        <v>2.77</v>
       </c>
       <c r="L11">
-        <v>11.15</v>
+        <v>2.21</v>
       </c>
       <c r="M11">
-        <v>10.53</v>
+        <v>14.02</v>
       </c>
       <c r="N11">
-        <v>56.58999999999999</v>
+        <v>43.12</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>4.29</v>
+        <v>1.46</v>
       </c>
       <c r="C12">
-        <v>6.58</v>
+        <v>10.23</v>
       </c>
       <c r="D12">
-        <v>6.67</v>
+        <v>16.68</v>
       </c>
       <c r="E12">
-        <v>1.92</v>
+        <v>7.5</v>
       </c>
       <c r="F12">
-        <v>2.72</v>
+        <v>0.83</v>
       </c>
       <c r="G12">
-        <v>15.43</v>
+        <v>0.09</v>
       </c>
       <c r="H12">
-        <v>19.16</v>
+        <v>2.48</v>
       </c>
       <c r="I12">
-        <v>6.419999999999999</v>
+        <v>15.16</v>
       </c>
       <c r="J12">
-        <v>2.46</v>
+        <v>21.68</v>
       </c>
       <c r="K12">
-        <v>10.49</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="L12">
-        <v>16.78</v>
+        <v>1.17</v>
       </c>
       <c r="M12">
-        <v>7.08</v>
+        <v>14.8</v>
       </c>
       <c r="N12">
-        <v>56.77</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3.85</v>
+        <v>0.62</v>
       </c>
       <c r="C13">
-        <v>6.87</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="D13">
-        <v>7.39</v>
+        <v>25.62</v>
       </c>
       <c r="E13">
-        <v>3.01</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>1.03</v>
+        <v>4.94</v>
       </c>
       <c r="G13">
-        <v>8.540000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H13">
-        <v>20.63</v>
+        <v>0.74</v>
       </c>
       <c r="I13">
-        <v>11.88</v>
+        <v>6.49</v>
       </c>
       <c r="J13">
-        <v>2.37</v>
+        <v>15.09</v>
       </c>
       <c r="K13">
-        <v>6.550000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="L13">
-        <v>16.68</v>
+        <v>1.57</v>
       </c>
       <c r="M13">
-        <v>11.2</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>51.32</v>
+        <v>62.45999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2172,10 +2166,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -2186,13 +2180,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -2203,13 +2197,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -2220,16 +2214,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2237,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2246,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2254,16 +2248,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2271,16 +2265,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2291,13 +2285,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2308,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2322,16 +2316,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2342,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2359,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2375,51 +2369,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2456,257 +2453,278 @@
       <c r="L2">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>-4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
       <c r="I3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>-8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>-4</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-13</v>
+      </c>
+      <c r="D5">
+        <v>-10</v>
+      </c>
+      <c r="E5">
+        <v>-9</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>-2</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>-4</v>
-      </c>
-      <c r="E5">
-        <v>-7</v>
-      </c>
-      <c r="F5">
-        <v>-12</v>
-      </c>
-      <c r="G5">
-        <v>-8</v>
-      </c>
-      <c r="H5">
-        <v>-10</v>
-      </c>
       <c r="I5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>-4</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7">
+        <v>-12</v>
+      </c>
+      <c r="G7">
         <v>-8</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>-3</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>-4</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-13</v>
-      </c>
-      <c r="D7">
+      <c r="H7">
         <v>-10</v>
       </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
       <c r="I7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J7">
         <v>-4</v>
       </c>
       <c r="K7">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>-21</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>-23</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>-31</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>-28</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="L8">
-        <v>-4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>-11</v>
+      </c>
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2743,11 +2761,14 @@
       <c r="L9">
         <v>-5</v>
       </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2784,52 +2805,58 @@
       <c r="L10">
         <v>-5</v>
       </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>-31</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>-11</v>
-      </c>
-      <c r="M11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>-4</v>
+      </c>
+      <c r="M11">
+        <v>-8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2866,11 +2893,14 @@
       <c r="L12">
         <v>-17</v>
       </c>
-      <c r="M12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2907,8 +2937,11 @@
       <c r="L13">
         <v>-30</v>
       </c>
-      <c r="M13" t="s">
-        <v>53</v>
+      <c r="M13">
+        <v>-37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2926,25 +2959,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2978,25 +3011,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3007,22 +3040,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3030,25 +3063,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>-30</v>
       </c>
       <c r="F5">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3056,25 +3089,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>-30</v>
+        <v>-8</v>
       </c>
       <c r="G6">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3082,25 +3115,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3108,25 +3141,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="F8">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3134,25 +3167,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>-17</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3163,22 +3196,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>-6</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3186,25 +3219,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>-23</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3212,25 +3245,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>-23</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3238,25 +3271,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3267,22 +3300,22 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G14">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3290,24 +3323,50 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>-7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>-1</v>
       </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="71">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,37 +58,34 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -154,25 +151,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,28 +642,28 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -680,37 +683,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -724,34 +727,34 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -759,40 +762,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -803,37 +806,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
       <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -841,40 +844,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -882,40 +885,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" t="s">
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -926,19 +929,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -947,16 +950,16 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
         <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -967,28 +970,28 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -997,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1008,37 +1011,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1046,22 +1049,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1070,16 +1073,16 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1087,40 +1090,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1141,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1155,10 +1158,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.416666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1183,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.75</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1194,13 +1197,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1211,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5.916666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1236,13 +1239,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6.583333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1281,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1295,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>7.416666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1309,10 +1312,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7.916666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1330,16 +1333,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>7.75</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D2">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1364,16 +1367,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D3">
-        <v>-1.916666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1381,16 +1384,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1398,16 +1401,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D5">
-        <v>-2.583333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1418,13 +1421,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D6">
-        <v>0.416666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1435,13 +1438,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.083333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7">
-        <v>-1.916666666666667</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1449,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D8">
-        <v>0.916666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1469,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5.75</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1483,16 +1486,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5.416666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D10">
-        <v>0.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1503,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1520,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D12">
-        <v>2.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1537,10 +1540,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>4.333333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.666666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1561,134 +1564,134 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>16.29</v>
+        <v>25.17</v>
       </c>
       <c r="C2">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.59</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22.88</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>15.86</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.64</v>
+        <v>74.83</v>
       </c>
       <c r="I2">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>13.31</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>71.41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>15.18</v>
+        <v>24.91</v>
       </c>
       <c r="C3">
-        <v>8.029999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="D3">
-        <v>0.8699999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>22.67</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.81</v>
+        <v>19.26</v>
       </c>
       <c r="I3">
-        <v>0.42</v>
+        <v>49.91999999999999</v>
       </c>
       <c r="J3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.76</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.33</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>73.85000000000001</v>
+        <v>50.08</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1696,307 +1699,307 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>13.47</v>
+        <v>22.37</v>
       </c>
       <c r="C4">
-        <v>1.63</v>
+        <v>14.4</v>
       </c>
       <c r="D4">
-        <v>2.66</v>
+        <v>1.45</v>
       </c>
       <c r="E4">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>21.48</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.89</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>4.46</v>
       </c>
       <c r="I4">
-        <v>0.28</v>
+        <v>29.77</v>
       </c>
       <c r="J4">
-        <v>4.07</v>
+        <v>27.55</v>
       </c>
       <c r="K4">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>14.33</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>63.59</v>
+        <v>42.68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>11.82</v>
+        <v>15.37</v>
       </c>
       <c r="C5">
-        <v>10.19</v>
+        <v>22.66</v>
       </c>
       <c r="D5">
-        <v>1.82</v>
+        <v>5.69</v>
       </c>
       <c r="E5">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="F5">
-        <v>7.049999999999999</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>23.98</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.98</v>
+        <v>1.12</v>
       </c>
       <c r="I5">
-        <v>2.41</v>
+        <v>13.17</v>
       </c>
       <c r="J5">
-        <v>0.37</v>
+        <v>29.48</v>
       </c>
       <c r="K5">
-        <v>3.91</v>
+        <v>12.18</v>
       </c>
       <c r="L5">
-        <v>12.73</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>71.22</v>
+        <v>45.16999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>10.4</v>
+        <v>8.16</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>22.79</v>
       </c>
       <c r="D6">
-        <v>7.199999999999999</v>
+        <v>13.58</v>
       </c>
       <c r="E6">
-        <v>19.58</v>
+        <v>1.8</v>
       </c>
       <c r="F6">
-        <v>14.86</v>
+        <v>0.08</v>
       </c>
       <c r="G6">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I6">
-        <v>1.21</v>
+        <v>5.01</v>
       </c>
       <c r="J6">
-        <v>9.51</v>
+        <v>22.25</v>
       </c>
       <c r="K6">
-        <v>19.26</v>
+        <v>22.06</v>
       </c>
       <c r="L6">
-        <v>12.53</v>
+        <v>4.02</v>
       </c>
       <c r="M6">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>55.71</v>
+        <v>46.66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>8.92</v>
+        <v>3.28</v>
       </c>
       <c r="C7">
-        <v>11.78</v>
+        <v>19.97</v>
       </c>
       <c r="D7">
-        <v>3.83</v>
+        <v>22.9</v>
       </c>
       <c r="E7">
-        <v>0.29</v>
+        <v>6.69</v>
       </c>
       <c r="F7">
-        <v>2.25</v>
+        <v>0.45</v>
       </c>
       <c r="G7">
-        <v>15.76</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>24.31</v>
+        <v>0.08</v>
       </c>
       <c r="I7">
-        <v>7.85</v>
+        <v>1.6</v>
       </c>
       <c r="J7">
-        <v>0.53</v>
+        <v>11.9</v>
       </c>
       <c r="K7">
-        <v>1.88</v>
+        <v>22.14</v>
       </c>
       <c r="L7">
-        <v>10.34</v>
+        <v>10.25</v>
       </c>
       <c r="M7">
-        <v>12.26</v>
+        <v>0.74</v>
       </c>
       <c r="N7">
-        <v>67.14</v>
+        <v>53.37</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>8.01</v>
+        <v>0.74</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>10.41</v>
       </c>
       <c r="D8">
-        <v>6.510000000000001</v>
+        <v>25.72</v>
       </c>
       <c r="E8">
-        <v>0.8500000000000001</v>
+        <v>15.04</v>
       </c>
       <c r="F8">
-        <v>0.37</v>
+        <v>2.16</v>
       </c>
       <c r="G8">
-        <v>7.489999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H8">
-        <v>22.01</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.79</v>
+        <v>0.44</v>
       </c>
       <c r="J8">
-        <v>2.37</v>
+        <v>6.13</v>
       </c>
       <c r="K8">
-        <v>0.9199999999999999</v>
+        <v>19.76</v>
       </c>
       <c r="L8">
-        <v>7.16</v>
+        <v>16.39</v>
       </c>
       <c r="M8">
-        <v>12.52</v>
+        <v>3.12</v>
       </c>
       <c r="N8">
-        <v>60.24</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>5.83</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.76</v>
+        <v>3.86</v>
       </c>
       <c r="D9">
-        <v>10.8</v>
+        <v>19.73</v>
       </c>
       <c r="E9">
-        <v>16.87</v>
+        <v>23.58</v>
       </c>
       <c r="F9">
-        <v>7.720000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="G9">
-        <v>0.7100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.62</v>
+        <v>0.09</v>
       </c>
       <c r="J9">
-        <v>20.26</v>
+        <v>2.25</v>
       </c>
       <c r="K9">
-        <v>23.56</v>
+        <v>14.48</v>
       </c>
       <c r="L9">
-        <v>7.22</v>
+        <v>21.9</v>
       </c>
       <c r="M9">
-        <v>0.45</v>
+        <v>7.07</v>
       </c>
       <c r="N9">
-        <v>43.89</v>
+        <v>54.21</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>4.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>13.88</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>9.220000000000001</v>
+        <v>10.93</v>
       </c>
       <c r="E10">
-        <v>1.88</v>
+        <v>28.56</v>
       </c>
       <c r="F10">
-        <v>0.17</v>
+        <v>15.53</v>
       </c>
       <c r="G10">
-        <v>2.15</v>
+        <v>1.51</v>
       </c>
       <c r="H10">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>22.61</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.23</v>
+        <v>0.44</v>
       </c>
       <c r="K10">
-        <v>0.62</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="L10">
-        <v>5.1</v>
+        <v>22.53</v>
       </c>
       <c r="M10">
-        <v>15.34</v>
+        <v>13.07</v>
       </c>
       <c r="N10">
-        <v>48.10000000000001</v>
+        <v>56.53</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2004,87 +2007,87 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>13.59</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>14.26</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3.82</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>30.44</v>
       </c>
       <c r="G11">
-        <v>0.54</v>
+        <v>5.54</v>
       </c>
       <c r="H11">
-        <v>7.46</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>22.09</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15.79</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
-        <v>2.21</v>
+        <v>17.42</v>
       </c>
       <c r="M11">
-        <v>14.02</v>
+        <v>20.65</v>
       </c>
       <c r="N11">
-        <v>43.12</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>16.68</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.83</v>
+        <v>44.65</v>
       </c>
       <c r="G12">
-        <v>0.09</v>
+        <v>18.02</v>
       </c>
       <c r="H12">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>15.16</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>21.68</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7.920000000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.17</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="M12">
-        <v>14.8</v>
+        <v>29.84</v>
       </c>
       <c r="N12">
-        <v>39.27</v>
+        <v>62.67</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2092,43 +2095,43 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>8.309999999999999</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>25.62</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.23</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="H13">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>6.49</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>15.09</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>9.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>25.51</v>
       </c>
       <c r="N13">
-        <v>62.45999999999999</v>
+        <v>74.48999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2146,16 +2149,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2166,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2183,13 +2186,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2197,16 +2200,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2214,13 +2217,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -2231,13 +2234,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -2248,13 +2251,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -2268,13 +2271,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2282,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2299,16 +2302,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2316,16 +2319,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2336,13 +2339,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2353,13 +2356,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2369,13 +2372,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2413,10 +2416,13 @@
         <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2456,11 +2462,14 @@
       <c r="M2">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2500,87 +2509,93 @@
       <c r="M3">
         <v>15</v>
       </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
+        <v>-12</v>
+      </c>
+      <c r="G4">
         <v>-8</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>-3</v>
-      </c>
       <c r="H4">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J4">
         <v>-4</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>-8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>-13</v>
-      </c>
-      <c r="D5">
-        <v>-10</v>
-      </c>
-      <c r="E5">
-        <v>-9</v>
-      </c>
       <c r="F5">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>-4</v>
       </c>
       <c r="K5">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2588,99 +2603,108 @@
       <c r="M5">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-13</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+      <c r="E6">
+        <v>-9</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-4</v>
+      </c>
+      <c r="K6">
+        <v>-6</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>-4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="I6">
-        <v>16</v>
-      </c>
-      <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6">
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-4</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-12</v>
-      </c>
-      <c r="G7">
-        <v>-8</v>
-      </c>
-      <c r="H7">
-        <v>-10</v>
-      </c>
-      <c r="I7">
-        <v>-2</v>
-      </c>
-      <c r="J7">
-        <v>-4</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2720,43 +2744,46 @@
       <c r="M8">
         <v>-2</v>
       </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E9">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>-3</v>
       </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
       <c r="J9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>-5</v>
@@ -2764,99 +2791,108 @@
       <c r="M9">
         <v>-7</v>
       </c>
-      <c r="N9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-11</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>-4</v>
+      </c>
+      <c r="M10">
+        <v>-8</v>
+      </c>
+      <c r="N10">
+        <v>-13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
         <v>-3</v>
       </c>
-      <c r="J10">
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
+      <c r="L11">
         <v>-5</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-7</v>
       </c>
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>-4</v>
-      </c>
-      <c r="M11">
-        <v>-8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2896,11 +2932,14 @@
       <c r="M12">
         <v>-22</v>
       </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2940,8 +2979,11 @@
       <c r="M13">
         <v>-37</v>
       </c>
-      <c r="N13" t="s">
-        <v>50</v>
+      <c r="N13">
+        <v>-34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2959,25 +3001,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3037,25 +3079,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>54</v>
+        <v>-13</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3066,22 +3108,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-30</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3089,25 +3131,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3115,22 +3157,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7">
-        <v>-6</v>
+        <v>-30</v>
       </c>
       <c r="F7">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -3141,25 +3183,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3167,25 +3209,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3193,25 +3235,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3219,25 +3261,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
       <c r="F11">
-        <v>8</v>
+        <v>-17</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3245,25 +3287,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F12">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3271,25 +3313,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3297,25 +3339,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3323,25 +3365,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
         <v>7</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3349,25 +3391,51 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>-7</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="75">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,34 +58,37 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -151,30 +154,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -212,6 +221,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -645,28 +657,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -683,37 +695,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -724,10 +736,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -736,25 +748,25 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -762,40 +774,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -803,40 +815,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -847,37 +859,37 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -885,37 +897,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
         <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -926,40 +938,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -967,40 +979,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1008,40 +1020,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1052,16 +1064,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1070,19 +1082,19 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1090,40 +1102,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1141,13 +1153,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1158,10 +1170,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1186,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>5.666666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1197,13 +1209,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1225,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1253,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1267,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1284,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1298,10 +1310,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>7.916666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1312,10 +1324,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>8.333333333333334</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1333,16 +1345,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,16 +1362,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7.833333333333333</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D2">
-        <v>1.833333333333333</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1367,16 +1379,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1384,16 +1396,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>7.166666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D4">
-        <v>-1.833333333333333</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1401,16 +1413,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>-1.916666666666667</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1418,16 +1430,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
-        <v>0.08333333333333304</v>
+        <v>-2.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1438,13 +1450,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D7">
-        <v>-1.416666666666667</v>
+        <v>-1.75</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1455,10 +1467,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>6.333333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D8">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1472,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D9">
-        <v>1.166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1489,13 +1501,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>6.083333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D10">
-        <v>1.083333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1503,16 +1515,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5.666666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D11">
-        <v>0.666666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1520,13 +1532,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>5.416666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D12">
-        <v>1.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1546,7 +1558,7 @@
         <v>-0.916666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1564,57 +1576,57 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>25.17</v>
+        <v>25.79</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1629,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>74.83</v>
+        <v>16.02</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>53.52</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1647,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1655,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>24.91</v>
+        <v>21.1</v>
       </c>
       <c r="C3">
-        <v>5.91</v>
+        <v>11.95</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1673,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>19.26</v>
+        <v>3.76</v>
       </c>
       <c r="I3">
-        <v>49.91999999999999</v>
+        <v>29.86</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>32.42</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1691,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>50.08</v>
+        <v>37.71999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>22.37</v>
+        <v>20.69</v>
       </c>
       <c r="C4">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1717,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.46</v>
+        <v>79.31</v>
       </c>
       <c r="I4">
-        <v>29.77</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>27.55</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1735,24 +1747,24 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>42.68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>15.37</v>
+        <v>17.37</v>
       </c>
       <c r="C5">
-        <v>22.66</v>
+        <v>19.86</v>
       </c>
       <c r="D5">
-        <v>5.69</v>
+        <v>4.3</v>
       </c>
       <c r="E5">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1761,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.12</v>
+        <v>0.75</v>
       </c>
       <c r="I5">
-        <v>13.17</v>
+        <v>11.41</v>
       </c>
       <c r="J5">
-        <v>29.48</v>
+        <v>31.1</v>
       </c>
       <c r="K5">
-        <v>12.18</v>
+        <v>15.05</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1779,51 +1791,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>45.16999999999999</v>
+        <v>42.44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>8.16</v>
+        <v>10.16</v>
       </c>
       <c r="C6">
-        <v>22.79</v>
+        <v>24.17</v>
       </c>
       <c r="D6">
-        <v>13.58</v>
+        <v>11.06</v>
       </c>
       <c r="E6">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I6">
-        <v>5.01</v>
+        <v>3.89</v>
       </c>
       <c r="J6">
-        <v>22.25</v>
+        <v>20.21</v>
       </c>
       <c r="K6">
-        <v>22.06</v>
+        <v>24.3</v>
       </c>
       <c r="L6">
-        <v>4.02</v>
+        <v>4.89</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.66</v>
+        <v>46.70999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1831,136 +1843,136 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>3.28</v>
+        <v>3.9</v>
       </c>
       <c r="C7">
-        <v>19.97</v>
+        <v>22.12</v>
       </c>
       <c r="D7">
-        <v>22.9</v>
+        <v>20.92</v>
       </c>
       <c r="E7">
-        <v>6.69</v>
+        <v>4.75</v>
       </c>
       <c r="F7">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="J7">
-        <v>11.9</v>
+        <v>10.2</v>
       </c>
       <c r="K7">
-        <v>22.14</v>
+        <v>23.46</v>
       </c>
       <c r="L7">
-        <v>10.25</v>
+        <v>12.34</v>
       </c>
       <c r="M7">
-        <v>0.74</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="N7">
-        <v>53.37</v>
+        <v>51.84999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.74</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C8">
-        <v>10.41</v>
+        <v>12.73</v>
       </c>
       <c r="D8">
-        <v>25.72</v>
+        <v>26.87</v>
       </c>
       <c r="E8">
-        <v>15.04</v>
+        <v>12.09</v>
       </c>
       <c r="F8">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="G8">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.44</v>
+        <v>0.14</v>
       </c>
       <c r="J8">
-        <v>6.13</v>
+        <v>4.61</v>
       </c>
       <c r="K8">
-        <v>19.76</v>
+        <v>19.03</v>
       </c>
       <c r="L8">
-        <v>16.39</v>
+        <v>18.71</v>
       </c>
       <c r="M8">
-        <v>3.12</v>
+        <v>3.51</v>
       </c>
       <c r="N8">
-        <v>54.16</v>
+        <v>54.00000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.86</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>19.73</v>
+        <v>23.58</v>
       </c>
       <c r="E9">
-        <v>23.58</v>
+        <v>23.55</v>
       </c>
       <c r="F9">
-        <v>6.69</v>
+        <v>5.29</v>
       </c>
       <c r="G9">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="J9">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
       <c r="K9">
-        <v>14.48</v>
+        <v>11.41</v>
       </c>
       <c r="L9">
-        <v>21.9</v>
+        <v>22.35</v>
       </c>
       <c r="M9">
-        <v>7.07</v>
+        <v>7.86</v>
       </c>
       <c r="N9">
-        <v>54.21</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1969,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.93</v>
+        <v>12.36</v>
       </c>
       <c r="E10">
-        <v>28.56</v>
+        <v>31.19</v>
       </c>
       <c r="F10">
-        <v>15.53</v>
+        <v>14.14</v>
       </c>
       <c r="G10">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1987,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="K10">
-        <v>7.430000000000001</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="L10">
-        <v>22.53</v>
+        <v>20.82</v>
       </c>
       <c r="M10">
-        <v>13.07</v>
+        <v>14.74</v>
       </c>
       <c r="N10">
-        <v>56.53</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2016,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>27.1</v>
       </c>
       <c r="F11">
-        <v>30.44</v>
+        <v>30.14</v>
       </c>
       <c r="G11">
-        <v>5.54</v>
+        <v>4.75</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2034,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="L11">
-        <v>17.42</v>
+        <v>14.78</v>
       </c>
       <c r="M11">
-        <v>20.65</v>
+        <v>21.87</v>
       </c>
       <c r="N11">
-        <v>59.98</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2063,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.65</v>
+        <v>48.97</v>
       </c>
       <c r="G12">
-        <v>18.02</v>
+        <v>17.22</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2081,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.489999999999999</v>
+        <v>6.11</v>
       </c>
       <c r="M12">
-        <v>29.84</v>
+        <v>27.7</v>
       </c>
       <c r="N12">
-        <v>62.67</v>
+        <v>66.19</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2110,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>74.48999999999999</v>
+        <v>76.67</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2128,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.51</v>
+        <v>23.33</v>
       </c>
       <c r="N13">
-        <v>74.48999999999999</v>
+        <v>76.67</v>
       </c>
     </row>
   </sheetData>
@@ -2149,16 +2161,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2169,13 +2181,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2183,16 +2195,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2200,16 +2212,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2217,16 +2229,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2237,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2251,16 +2263,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2268,16 +2280,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2285,16 +2297,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2305,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2322,13 +2334,13 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2339,13 +2351,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2356,13 +2368,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2372,57 +2384,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2465,152 +2480,164 @@
       <c r="N2">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>-7</v>
+      </c>
+      <c r="F3">
+        <v>-12</v>
+      </c>
+      <c r="G3">
+        <v>-8</v>
+      </c>
+      <c r="H3">
+        <v>-10</v>
+      </c>
+      <c r="I3">
+        <v>-2</v>
+      </c>
+      <c r="J3">
+        <v>-4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>-2</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="B4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>-8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-3</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4">
-        <v>-12</v>
-      </c>
-      <c r="G4">
-        <v>-8</v>
-      </c>
-      <c r="H4">
-        <v>-10</v>
-      </c>
-      <c r="I4">
-        <v>-2</v>
       </c>
       <c r="J4">
         <v>-4</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
       <c r="M4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
       <c r="C5">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>-3</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
         <v>8</v>
       </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2653,152 +2680,164 @@
       <c r="N6">
         <v>3</v>
       </c>
-      <c r="O6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-16</v>
+      </c>
+      <c r="F7">
+        <v>-21</v>
+      </c>
+      <c r="G7">
+        <v>-23</v>
+      </c>
+      <c r="H7">
+        <v>-31</v>
+      </c>
+      <c r="I7">
+        <v>-28</v>
+      </c>
+      <c r="J7">
+        <v>-20</v>
+      </c>
+      <c r="K7">
+        <v>-16</v>
+      </c>
+      <c r="L7">
+        <v>-11</v>
+      </c>
+      <c r="M7">
+        <v>-2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-11</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>14</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-9</v>
-      </c>
-      <c r="E8">
-        <v>-16</v>
-      </c>
-      <c r="F8">
-        <v>-21</v>
-      </c>
-      <c r="G8">
-        <v>-23</v>
-      </c>
-      <c r="H8">
-        <v>-31</v>
-      </c>
-      <c r="I8">
-        <v>-28</v>
-      </c>
-      <c r="J8">
-        <v>-20</v>
-      </c>
-      <c r="K8">
-        <v>-16</v>
-      </c>
       <c r="L8">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="M8">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>-3</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>-5</v>
-      </c>
-      <c r="M9">
-        <v>-7</v>
-      </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2841,11 +2880,14 @@
       <c r="N10">
         <v>-13</v>
       </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2888,11 +2930,14 @@
       <c r="N11">
         <v>-14</v>
       </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2935,11 +2980,14 @@
       <c r="N12">
         <v>-21</v>
       </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2982,8 +3030,11 @@
       <c r="N13">
         <v>-34</v>
       </c>
-      <c r="O13" t="s">
-        <v>49</v>
+      <c r="O13">
+        <v>-36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +3044,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3001,25 +3052,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3131,25 +3182,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
-        <v>-34</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3157,22 +3208,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-34</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -3183,25 +3234,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>-30</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>-8</v>
-      </c>
       <c r="G8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3209,25 +3260,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>-30</v>
+        <v>-8</v>
       </c>
       <c r="G9">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3235,25 +3286,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3261,25 +3312,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="F11">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3287,25 +3338,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>-17</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3313,25 +3364,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>-2</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>-23</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3339,25 +3390,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F14">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3365,25 +3416,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3391,51 +3442,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>-7</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="79">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,37 +58,43 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>5-9-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -154,36 +160,39 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -654,25 +666,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -704,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -713,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -736,37 +748,37 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -774,40 +786,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -815,40 +827,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -900,25 +912,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -941,37 +953,37 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -982,37 +994,37 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1023,22 +1035,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1073,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1102,40 +1114,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
         <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1153,13 +1165,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1170,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.583333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.583333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1198,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1212,10 +1224,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1223,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1237,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1251,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7.333333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1268,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1282,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1293,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1307,13 +1319,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>8.083333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1324,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>9.166666666666666</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1345,16 +1357,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1365,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.416666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D2">
-        <v>-0.5833333333333339</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1379,16 +1391,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8.333333333333334</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D3">
-        <v>2.333333333333334</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1396,16 +1408,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8.083333333333334</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0.08333333333333393</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1413,16 +1425,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1430,16 +1442,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-2.583333333333333</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1447,16 +1459,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>-1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1464,16 +1476,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>7.166666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>0.166666666666667</v>
+        <v>-1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1481,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1498,13 +1510,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D10">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1515,16 +1527,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.166666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
-        <v>1.166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1532,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>6.083333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D12">
-        <v>1.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,13 +1564,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D13">
-        <v>-0.916666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1576,46 +1588,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1623,10 +1635,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>25.79</v>
+        <v>25.33</v>
       </c>
       <c r="C2">
-        <v>4.67</v>
+        <v>4.3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1641,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>16.02</v>
+        <v>15.25</v>
       </c>
       <c r="I2">
-        <v>53.52</v>
+        <v>55.12</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1659,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>46.48</v>
+        <v>44.88</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1667,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>21.1</v>
+        <v>22.2</v>
       </c>
       <c r="C3">
-        <v>11.95</v>
+        <v>12.01</v>
       </c>
       <c r="D3">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1685,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.76</v>
+        <v>3.46</v>
       </c>
       <c r="I3">
-        <v>29.86</v>
+        <v>28.57</v>
       </c>
       <c r="J3">
-        <v>32.42</v>
+        <v>32.92</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1703,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>37.71999999999999</v>
+        <v>38.51000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1711,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20.69</v>
+        <v>19.55</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1729,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>79.31</v>
+        <v>80.45</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1755,16 +1767,16 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>17.37</v>
+        <v>17.77</v>
       </c>
       <c r="C5">
-        <v>19.86</v>
+        <v>19.79</v>
       </c>
       <c r="D5">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="E5">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1773,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I5">
-        <v>11.41</v>
+        <v>11.21</v>
       </c>
       <c r="J5">
-        <v>31.1</v>
+        <v>30.98</v>
       </c>
       <c r="K5">
-        <v>15.05</v>
+        <v>15.15</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1791,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>42.44</v>
+        <v>42.66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1799,43 +1811,43 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>10.16</v>
+        <v>9.81</v>
       </c>
       <c r="C6">
-        <v>24.17</v>
+        <v>23.5</v>
       </c>
       <c r="D6">
-        <v>11.06</v>
+        <v>10.77</v>
       </c>
       <c r="E6">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I6">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="J6">
-        <v>20.21</v>
+        <v>20.23</v>
       </c>
       <c r="K6">
-        <v>24.3</v>
+        <v>25.25</v>
       </c>
       <c r="L6">
-        <v>4.89</v>
+        <v>5.34</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>46.70999999999999</v>
+        <v>45.32000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1843,43 +1855,43 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>3.9</v>
+        <v>4.26</v>
       </c>
       <c r="C7">
-        <v>22.12</v>
+        <v>22.73</v>
       </c>
       <c r="D7">
-        <v>20.92</v>
+        <v>20.05</v>
       </c>
       <c r="E7">
-        <v>4.75</v>
+        <v>4.82</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>10.2</v>
+        <v>9.81</v>
       </c>
       <c r="K7">
-        <v>23.46</v>
+        <v>23.68</v>
       </c>
       <c r="L7">
-        <v>12.34</v>
+        <v>12.33</v>
       </c>
       <c r="M7">
-        <v>0.9900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="N7">
-        <v>51.84999999999999</v>
+        <v>52.10000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1887,43 +1899,43 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.9900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="C8">
-        <v>12.73</v>
+        <v>12.92</v>
       </c>
       <c r="D8">
-        <v>26.87</v>
+        <v>26.49</v>
       </c>
       <c r="E8">
-        <v>12.09</v>
+        <v>11.41</v>
       </c>
       <c r="F8">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="G8">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="J8">
-        <v>4.61</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="K8">
-        <v>19.03</v>
+        <v>18.45</v>
       </c>
       <c r="L8">
-        <v>18.71</v>
+        <v>19.92</v>
       </c>
       <c r="M8">
-        <v>3.51</v>
+        <v>3.67</v>
       </c>
       <c r="N8">
-        <v>54.00000000000001</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1934,40 +1946,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D9">
-        <v>23.58</v>
+        <v>24.93</v>
       </c>
       <c r="E9">
-        <v>23.55</v>
+        <v>23.39</v>
       </c>
       <c r="F9">
-        <v>5.29</v>
+        <v>4.96</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="K9">
-        <v>11.41</v>
+        <v>10.84</v>
       </c>
       <c r="L9">
-        <v>22.35</v>
+        <v>21.55</v>
       </c>
       <c r="M9">
-        <v>7.86</v>
+        <v>7.91</v>
       </c>
       <c r="N9">
-        <v>57.12</v>
+        <v>58.17</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1981,16 +1993,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.36</v>
+        <v>12.66</v>
       </c>
       <c r="E10">
-        <v>31.19</v>
+        <v>31.72</v>
       </c>
       <c r="F10">
-        <v>14.14</v>
+        <v>13.8</v>
       </c>
       <c r="G10">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1999,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
-        <v>5.390000000000001</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="L10">
-        <v>20.82</v>
+        <v>20.43</v>
       </c>
       <c r="M10">
-        <v>14.74</v>
+        <v>14.76</v>
       </c>
       <c r="N10">
-        <v>58.83</v>
+        <v>59.33999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2028,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.1</v>
+        <v>27.42</v>
       </c>
       <c r="F11">
-        <v>30.14</v>
+        <v>29.77</v>
       </c>
       <c r="G11">
-        <v>4.75</v>
+        <v>4.42</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2046,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="L11">
-        <v>14.78</v>
+        <v>14.7</v>
       </c>
       <c r="M11">
-        <v>21.87</v>
+        <v>22.38</v>
       </c>
       <c r="N11">
-        <v>61.99</v>
+        <v>61.61000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2075,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.97</v>
+        <v>49.8</v>
       </c>
       <c r="G12">
-        <v>17.22</v>
+        <v>16.46</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2093,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.11</v>
+        <v>5.73</v>
       </c>
       <c r="M12">
-        <v>27.7</v>
+        <v>28.01</v>
       </c>
       <c r="N12">
-        <v>66.19</v>
+        <v>66.25999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2122,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>76.67</v>
+        <v>77.81</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2140,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.33</v>
+        <v>22.19</v>
       </c>
       <c r="N13">
-        <v>76.67</v>
+        <v>77.81</v>
       </c>
     </row>
   </sheetData>
@@ -2161,16 +2173,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2181,13 +2193,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2198,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2215,13 +2227,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2229,16 +2241,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2249,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2263,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2280,16 +2292,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2300,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2317,13 +2329,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2331,16 +2343,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2348,16 +2360,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2371,10 +2383,10 @@
         <v>-36</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2384,60 +2396,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2483,11 +2498,14 @@
       <c r="O2">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2533,11 +2551,14 @@
       <c r="O3">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2583,61 +2604,67 @@
       <c r="O4">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
       <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-9</v>
+      </c>
+      <c r="E5">
+        <v>-16</v>
+      </c>
+      <c r="F5">
+        <v>-21</v>
+      </c>
+      <c r="G5">
+        <v>-23</v>
+      </c>
+      <c r="H5">
+        <v>-31</v>
+      </c>
+      <c r="I5">
+        <v>-28</v>
+      </c>
+      <c r="J5">
+        <v>-20</v>
+      </c>
+      <c r="K5">
+        <v>-16</v>
+      </c>
+      <c r="L5">
+        <v>-11</v>
+      </c>
+      <c r="M5">
+        <v>-2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2683,111 +2710,120 @@
       <c r="O6">
         <v>7</v>
       </c>
-      <c r="P6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-11</v>
+      </c>
+      <c r="D7">
+        <v>-6</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>-3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7">
+        <v>-7</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="F8">
         <v>-2</v>
       </c>
-      <c r="D7">
-        <v>-9</v>
-      </c>
-      <c r="E7">
-        <v>-16</v>
-      </c>
-      <c r="F7">
-        <v>-21</v>
-      </c>
-      <c r="G7">
-        <v>-23</v>
-      </c>
-      <c r="H7">
-        <v>-31</v>
-      </c>
-      <c r="I7">
-        <v>-28</v>
-      </c>
-      <c r="J7">
-        <v>-20</v>
-      </c>
-      <c r="K7">
-        <v>-16</v>
-      </c>
-      <c r="L7">
-        <v>-11</v>
-      </c>
-      <c r="M7">
-        <v>-2</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-11</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
         <v>-1</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-3</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>-5</v>
-      </c>
-      <c r="M8">
-        <v>-7</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2833,11 +2869,14 @@
       <c r="O9">
         <v>-2</v>
       </c>
-      <c r="P9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2883,111 +2922,120 @@
       <c r="O10">
         <v>-9</v>
       </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
+        <v>-11</v>
+      </c>
+      <c r="H11">
+        <v>-17</v>
+      </c>
+      <c r="I11">
+        <v>-21</v>
+      </c>
+      <c r="J11">
+        <v>-21</v>
+      </c>
+      <c r="K11">
+        <v>-22</v>
+      </c>
+      <c r="L11">
+        <v>-17</v>
+      </c>
+      <c r="M11">
+        <v>-22</v>
+      </c>
+      <c r="N11">
+        <v>-21</v>
+      </c>
+      <c r="O11">
+        <v>-23</v>
+      </c>
+      <c r="P11">
+        <v>-22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>-7</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-16</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-9</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-3</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-5</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>-7</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>-14</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>-21</v>
       </c>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>-4</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <v>-11</v>
-      </c>
-      <c r="H12">
-        <v>-17</v>
-      </c>
-      <c r="I12">
-        <v>-21</v>
-      </c>
-      <c r="J12">
-        <v>-21</v>
-      </c>
-      <c r="K12">
-        <v>-22</v>
-      </c>
-      <c r="L12">
-        <v>-17</v>
-      </c>
-      <c r="M12">
-        <v>-22</v>
-      </c>
-      <c r="N12">
-        <v>-21</v>
-      </c>
-      <c r="O12">
-        <v>-23</v>
-      </c>
-      <c r="P12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3033,8 +3081,11 @@
       <c r="O13">
         <v>-36</v>
       </c>
-      <c r="P13" t="s">
-        <v>53</v>
+      <c r="P13">
+        <v>-36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +3095,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,25 +3103,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3234,25 +3285,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-30</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3260,25 +3311,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>-30</v>
       </c>
       <c r="F9">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3286,25 +3337,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>-30</v>
+        <v>-8</v>
       </c>
       <c r="G10">
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3312,25 +3363,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3338,25 +3389,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="F12">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3364,19 +3415,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="G13">
         <v>21</v>
@@ -3390,77 +3441,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>-23</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>-3</v>
-      </c>
-      <c r="F16">
-        <v>-23</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2024.xlsx
+++ b/Pennoni Younglings 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="84">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,43 +58,52 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>5-9-1</t>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>9-7-1</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>7-9-1</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>6-10-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -160,39 +169,39 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -236,6 +245,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -666,31 +681,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -704,37 +719,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -745,37 +760,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -786,16 +801,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -807,19 +822,19 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -827,40 +842,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -868,40 +883,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -909,40 +924,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -950,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -959,31 +974,31 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -991,40 +1006,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1032,10 +1047,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1053,13 +1068,13 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -1073,19 +1088,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1100,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -1114,40 +1129,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1165,13 +1180,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1182,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1196,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.333333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1207,13 +1222,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.833333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1221,13 +1236,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>7.083333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1235,13 +1250,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>7.333333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1249,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7.416666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1263,13 +1278,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.583333333333333</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1277,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>7.75</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1294,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>8.416666666666666</v>
+        <v>9.25</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1308,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1319,13 +1334,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>8.5</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1333,13 +1348,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>9.416666666666666</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1357,16 +1372,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1377,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.333333333333334</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.6666666666666661</v>
+        <v>-0.1666666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1394,13 +1409,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>9.083333333333334</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="D3">
-        <v>0.08333333333333393</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1411,13 +1426,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1428,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1445,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>7.583333333333333</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D6">
-        <v>-1.416666666666667</v>
+        <v>-0.08333333333333393</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1462,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D7">
-        <v>-2.5</v>
+        <v>-1.666666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1479,13 +1494,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="D8">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1493,16 +1508,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1510,16 +1525,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>6.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1527,16 +1542,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1544,16 +1559,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D12">
-        <v>1.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1564,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1588,57 +1603,57 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>25.33</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1653,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>55.12</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1671,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>44.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12.01</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1697,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>32.92</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1715,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>38.51000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>19.55</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1741,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>80.45</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1767,16 +1782,16 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>17.77</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>19.79</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1785,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>30.98</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1803,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>42.66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1811,43 +1826,43 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>9.81</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>20.23</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>45.32000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1855,43 +1870,43 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>22.73</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>20.05</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.81</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>23.68</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>12.33</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>52.10000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1899,43 +1914,43 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>26.49</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.45</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>19.92</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>53.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1946,40 +1961,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>24.93</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>23.39</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.96</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10.84</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>21.55</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>58.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1993,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.66</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>31.72</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2011,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>5.319999999999999</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>20.43</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.76</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>59.33999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2040,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.42</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>29.77</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2058,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.31</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.38</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>61.61000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2087,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>16.46</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2105,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.73</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>28.01</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>66.25999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2134,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>77.81</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2152,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.19</v>
+        <v>100</v>
       </c>
       <c r="N13">
-        <v>77.81</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2173,16 +2188,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2193,13 +2208,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2210,13 +2225,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2227,13 +2242,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2244,13 +2259,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2258,16 +2273,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2278,13 +2293,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2292,16 +2307,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2318,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2326,16 +2341,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2343,16 +2358,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2363,13 +2378,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2380,13 +2395,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2396,63 +2411,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2501,11 +2522,17 @@
       <c r="P2">
         <v>51</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2554,11 +2581,17 @@
       <c r="P3">
         <v>19</v>
       </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2607,11 +2640,17 @@
       <c r="P4">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>21</v>
+      </c>
+      <c r="R4">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2660,64 +2699,76 @@
       <c r="P5">
         <v>8</v>
       </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>-4</v>
-      </c>
-      <c r="K6">
-        <v>-6</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2766,64 +2817,76 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-13</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-9</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-4</v>
+      </c>
+      <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="O8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8">
+        <v>-4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2872,117 +2935,135 @@
       <c r="P9">
         <v>-7</v>
       </c>
-      <c r="Q9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-6</v>
+      </c>
+      <c r="R9">
+        <v>-7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <v>-11</v>
+      </c>
+      <c r="H10">
+        <v>-17</v>
+      </c>
+      <c r="I10">
+        <v>-21</v>
+      </c>
+      <c r="J10">
+        <v>-21</v>
+      </c>
+      <c r="K10">
+        <v>-22</v>
+      </c>
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10">
+        <v>-22</v>
+      </c>
+      <c r="N10">
+        <v>-21</v>
+      </c>
+      <c r="O10">
+        <v>-23</v>
+      </c>
+      <c r="P10">
+        <v>-22</v>
+      </c>
+      <c r="Q10">
+        <v>-19</v>
+      </c>
+      <c r="R10">
+        <v>-12</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-4</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-8</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-13</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-9</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>-7</v>
       </c>
-      <c r="Q10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>-11</v>
-      </c>
-      <c r="H11">
-        <v>-17</v>
-      </c>
-      <c r="I11">
-        <v>-21</v>
-      </c>
-      <c r="J11">
-        <v>-21</v>
-      </c>
-      <c r="K11">
-        <v>-22</v>
-      </c>
-      <c r="L11">
-        <v>-17</v>
-      </c>
-      <c r="M11">
-        <v>-22</v>
-      </c>
-      <c r="N11">
-        <v>-21</v>
-      </c>
-      <c r="O11">
-        <v>-23</v>
-      </c>
-      <c r="P11">
-        <v>-22</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11">
+        <v>-13</v>
+      </c>
+      <c r="R11">
+        <v>-16</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3031,11 +3112,17 @@
       <c r="P12">
         <v>-25</v>
       </c>
-      <c r="Q12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12">
+        <v>-34</v>
+      </c>
+      <c r="R12">
+        <v>-33</v>
+      </c>
+      <c r="S12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3084,8 +3171,14 @@
       <c r="P13">
         <v>-36</v>
       </c>
-      <c r="Q13" t="s">
-        <v>56</v>
+      <c r="Q13">
+        <v>-37</v>
+      </c>
+      <c r="R13">
+        <v>-42</v>
+      </c>
+      <c r="S13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3103,25 +3196,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3337,25 +3430,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>-33</v>
       </c>
       <c r="F10">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3363,25 +3456,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>-30</v>
+        <v>-8</v>
       </c>
       <c r="G11">
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3389,77 +3482,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>-17</v>
-      </c>
-      <c r="G13">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>-2</v>
-      </c>
-      <c r="F14">
-        <v>-23</v>
-      </c>
-      <c r="G14">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
